--- a/public/uploads/invoice/ERS05071-Invoice1.xlsx
+++ b/public/uploads/invoice/ERS05071-Invoice1.xlsx
@@ -52,7 +52,7 @@
     <t>Lakeview Road Bridge</t>
   </si>
   <si>
-    <t>02/08/2026</t>
+    <t>02/09/2026</t>
   </si>
   <si>
     <t>1258 Willingham Dr</t>

--- a/public/uploads/invoice/ERS05071-Invoice1.xlsx
+++ b/public/uploads/invoice/ERS05071-Invoice1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Client Invoice Export" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Client Invoice Export'!$A$1:$T$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Client Invoice Export'!$A$1:$T$35</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>INVOICE</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">E.R. SNELL CONTRACTOR, INC. </t>
+  </si>
+  <si>
+    <t>Empleado_Prueba_13</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -193,10 +196,10 @@
     <t>TOTAL CONTRACT AMOUNT:</t>
   </si>
   <si>
-    <t>CONC SIDEWALK, 4 IN</t>
+    <t>CONC DRIVEWAY, 6 IN</t>
   </si>
   <si>
-    <t>CONC VALLEY GUTTER, 6 IN</t>
+    <t>CONC SIDEWALK, 4 IN</t>
   </si>
   <si>
     <t>CLASS B CONC, BASE OR PVMT WIDENING</t>
@@ -205,22 +208,40 @@
     <t>CONC CATCH BASIN TOP &amp; THROAT</t>
   </si>
   <si>
+    <t>CONC DROP INLET</t>
+  </si>
+  <si>
     <t>CONC CURB &amp; GUTTER 8 IN X 30 IN TP 2</t>
   </si>
   <si>
-    <t>CONC DRIVEWAY, 6 IN</t>
+    <t>ADJUST MANHOLE TO GRADE</t>
   </si>
   <si>
-    <t>CONC DROP INLET</t>
+    <t>6 IN HEADER CURB</t>
   </si>
   <si>
-    <t>BOND</t>
+    <t>ADJUST WATER VALVE TO GRADE</t>
+  </si>
+  <si>
+    <t>4 IN SIDEWALK $5 LOT</t>
+  </si>
+  <si>
+    <t>4 INCH V-GUTTER</t>
+  </si>
+  <si>
+    <t>6 IN DUMPSTER PAD (DOES NOT INCLUDE CATCH BASIN)</t>
+  </si>
+  <si>
+    <t>6' CONCRETE SIDEWALK</t>
   </si>
   <si>
     <t>CHANGE ORDER IN OCTOBER 2025</t>
   </si>
   <si>
     <t>SIDEWALK ON BRIDGE 10 IN W/REINF</t>
+  </si>
+  <si>
+    <t>BOND</t>
   </si>
   <si>
     <t>SY</t>
@@ -233,6 +254,9 @@
   </si>
   <si>
     <t>LF</t>
+  </si>
+  <si>
+    <t>SF</t>
   </si>
   <si>
     <t>LS</t>
@@ -1612,10 +1636,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD1011"/>
+  <dimension ref="A1:AD1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="14.43" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1818,7 +1842,9 @@
         <v>14</v>
       </c>
       <c r="H5" s="36"/>
-      <c r="I5" s="35"/>
+      <c r="I5" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="36"/>
       <c r="K5" s="37"/>
       <c r="L5" s="4"/>
@@ -1828,10 +1854,10 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1849,37 +1875,37 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
       <c r="G6" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="37"/>
       <c r="L6" s="42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S6" s="45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1897,10 +1923,10 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="2"/>
@@ -1910,7 +1936,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="37"/>
       <c r="L7" s="50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M7" s="51"/>
       <c r="N7" s="52">
@@ -1941,18 +1967,18 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="55"/>
       <c r="I8" s="17"/>
       <c r="J8" s="19"/>
       <c r="K8" s="56"/>
       <c r="L8" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O8" s="26"/>
       <c r="P8" s="28"/>
@@ -1979,7 +2005,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="59"/>
       <c r="I9" s="60"/>
@@ -2039,7 +2065,7 @@
     </row>
     <row r="11" spans="1:30" customHeight="1" ht="47.25">
       <c r="A11" s="66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
@@ -2169,55 +2195,55 @@
     </row>
     <row r="15" spans="1:30" customHeight="1" ht="48.75">
       <c r="A15" s="74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I15" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J15" s="79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L15" s="81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M15" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N15" s="82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P15" s="84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S15" s="86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="57"/>
@@ -2236,27 +2262,27 @@
         <v>1</v>
       </c>
       <c r="B16" s="116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
       <c r="E16" s="117" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F16" s="118">
-        <v>58.0</v>
+        <v>87.0</v>
       </c>
       <c r="G16" s="119">
-        <v>1500.0</v>
+        <v>53.0</v>
       </c>
       <c r="H16" s="118">
-        <v>87000.0</v>
+        <v>4611.0</v>
       </c>
       <c r="I16" s="119">
-        <v>983.50999999999999</v>
+        <v>25.0</v>
       </c>
       <c r="J16" s="118">
-        <v>57043.58000000000175</v>
+        <v>2175.0</v>
       </c>
       <c r="K16" s="119">
         <v>0.0</v>
@@ -2265,23 +2291,23 @@
         <v>0.0</v>
       </c>
       <c r="M16" s="119">
-        <v>50.0</v>
+        <v>23.0</v>
       </c>
       <c r="N16" s="118">
-        <v>2900.0</v>
+        <v>2001.0</v>
       </c>
       <c r="O16" s="119">
-        <v>983.50999999999999</v>
+        <v>25.0</v>
       </c>
       <c r="P16" s="118">
-        <v>57043.58000000000175</v>
+        <v>2175.0</v>
       </c>
       <c r="Q16" s="120"/>
       <c r="R16" s="119">
-        <v>983.50999999999999</v>
+        <v>25.0</v>
       </c>
       <c r="S16" s="118">
-        <v>57043.58000000000175</v>
+        <v>2175.0</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="57"/>
@@ -2300,27 +2326,27 @@
         <v>2</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="115"/>
       <c r="D17" s="115"/>
       <c r="E17" s="117" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F17" s="118">
-        <v>87.0</v>
+        <v>58.0</v>
       </c>
       <c r="G17" s="119">
-        <v>60.0</v>
+        <v>1500.0</v>
       </c>
       <c r="H17" s="118">
-        <v>5220.0</v>
+        <v>87000.0</v>
       </c>
       <c r="I17" s="119">
-        <v>58.2</v>
+        <v>993.50999999999999</v>
       </c>
       <c r="J17" s="118">
-        <v>5063.40000000000055</v>
+        <v>57623.58000000000175</v>
       </c>
       <c r="K17" s="119">
         <v>0.0</v>
@@ -2329,23 +2355,23 @@
         <v>0.0</v>
       </c>
       <c r="M17" s="119">
-        <v>9.86</v>
+        <v>993.50999999999999</v>
       </c>
       <c r="N17" s="118">
-        <v>857.81999999999994</v>
+        <v>57623.58000000000175</v>
       </c>
       <c r="O17" s="119">
-        <v>58.2</v>
+        <v>993.50999999999999</v>
       </c>
       <c r="P17" s="118">
-        <v>5063.40000000000055</v>
+        <v>57623.58000000000175</v>
       </c>
       <c r="Q17" s="120"/>
       <c r="R17" s="119">
-        <v>58.2</v>
+        <v>993.50999999999999</v>
       </c>
       <c r="S17" s="118">
-        <v>5063.40000000000055</v>
+        <v>57623.58000000000175</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="57"/>
@@ -2364,12 +2390,12 @@
         <v>3</v>
       </c>
       <c r="B18" s="116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="115"/>
       <c r="D18" s="115"/>
       <c r="E18" s="117" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F18" s="118">
         <v>386.0</v>
@@ -2381,10 +2407,10 @@
         <v>6176.0</v>
       </c>
       <c r="I18" s="119">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="J18" s="118">
-        <v>11580.0</v>
+        <v>15440.0</v>
       </c>
       <c r="K18" s="119">
         <v>0.0</v>
@@ -2393,23 +2419,23 @@
         <v>0.0</v>
       </c>
       <c r="M18" s="119">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="N18" s="118">
-        <v>0.0</v>
+        <v>15440.0</v>
       </c>
       <c r="O18" s="119">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="P18" s="118">
-        <v>11580.0</v>
+        <v>15440.0</v>
       </c>
       <c r="Q18" s="120"/>
       <c r="R18" s="119">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="S18" s="118">
-        <v>11580.0</v>
+        <v>15440.0</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="57"/>
@@ -2428,12 +2454,12 @@
         <v>4</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="115"/>
       <c r="D19" s="115"/>
       <c r="E19" s="117" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F19" s="118">
         <v>2200.0</v>
@@ -2445,10 +2471,10 @@
         <v>37400.0</v>
       </c>
       <c r="I19" s="119">
-        <v>0.5</v>
+        <v>35.5</v>
       </c>
       <c r="J19" s="118">
-        <v>1100.0</v>
+        <v>78100.0</v>
       </c>
       <c r="K19" s="119">
         <v>0.0</v>
@@ -2457,23 +2483,23 @@
         <v>0.0</v>
       </c>
       <c r="M19" s="119">
-        <v>0.5</v>
+        <v>35.5</v>
       </c>
       <c r="N19" s="118">
-        <v>1100.0</v>
+        <v>78100.0</v>
       </c>
       <c r="O19" s="119">
-        <v>0.5</v>
+        <v>35.5</v>
       </c>
       <c r="P19" s="118">
-        <v>1100.0</v>
+        <v>78100.0</v>
       </c>
       <c r="Q19" s="120"/>
       <c r="R19" s="119">
-        <v>0.5</v>
+        <v>35.5</v>
       </c>
       <c r="S19" s="118">
-        <v>1100.0</v>
+        <v>78100.0</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="57"/>
@@ -2492,27 +2518,27 @@
         <v>5</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="115"/>
       <c r="D20" s="115"/>
       <c r="E20" s="117" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F20" s="118">
-        <v>36.0</v>
+        <v>800.0</v>
       </c>
       <c r="G20" s="119">
-        <v>2810.0</v>
+        <v>2.0</v>
       </c>
       <c r="H20" s="118">
-        <v>101160.0</v>
+        <v>1600.0</v>
       </c>
       <c r="I20" s="119">
-        <v>2506.0</v>
+        <v>22.0</v>
       </c>
       <c r="J20" s="118">
-        <v>90216.0</v>
+        <v>17600.0</v>
       </c>
       <c r="K20" s="119">
         <v>0.0</v>
@@ -2521,23 +2547,23 @@
         <v>0.0</v>
       </c>
       <c r="M20" s="119">
-        <v>303.0</v>
+        <v>22.0</v>
       </c>
       <c r="N20" s="118">
-        <v>10908.0</v>
+        <v>17600.0</v>
       </c>
       <c r="O20" s="119">
-        <v>2506.0</v>
+        <v>22.0</v>
       </c>
       <c r="P20" s="118">
-        <v>90216.0</v>
+        <v>17600.0</v>
       </c>
       <c r="Q20" s="120"/>
       <c r="R20" s="119">
-        <v>2506.0</v>
+        <v>22.0</v>
       </c>
       <c r="S20" s="118">
-        <v>90216.0</v>
+        <v>17600.0</v>
       </c>
       <c r="T20" s="1"/>
       <c r="U20" s="57"/>
@@ -2556,27 +2582,27 @@
         <v>6</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="115"/>
       <c r="D21" s="115"/>
       <c r="E21" s="117" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F21" s="118">
-        <v>87.0</v>
+        <v>36.0</v>
       </c>
       <c r="G21" s="119">
-        <v>53.0</v>
+        <v>2810.0</v>
       </c>
       <c r="H21" s="118">
-        <v>4611.0</v>
+        <v>101160.0</v>
       </c>
       <c r="I21" s="119">
-        <v>0.0</v>
+        <v>2506.0</v>
       </c>
       <c r="J21" s="118">
-        <v>0.0</v>
+        <v>90216.0</v>
       </c>
       <c r="K21" s="119">
         <v>0.0</v>
@@ -2591,17 +2617,17 @@
         <v>0.0</v>
       </c>
       <c r="O21" s="119">
-        <v>0.0</v>
+        <v>2506.0</v>
       </c>
       <c r="P21" s="118">
-        <v>0.0</v>
+        <v>90216.0</v>
       </c>
       <c r="Q21" s="120"/>
       <c r="R21" s="119">
-        <v>0.0</v>
+        <v>2506.0</v>
       </c>
       <c r="S21" s="118">
-        <v>0.0</v>
+        <v>90216.0</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="57"/>
@@ -2620,27 +2646,27 @@
         <v>7</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="115"/>
       <c r="D22" s="115"/>
       <c r="E22" s="117" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F22" s="118">
-        <v>800.0</v>
+        <v>20.0</v>
       </c>
       <c r="G22" s="119">
-        <v>2.0</v>
+        <v>500.0</v>
       </c>
       <c r="H22" s="118">
-        <v>1600.0</v>
+        <v>10000.0</v>
       </c>
       <c r="I22" s="119">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="J22" s="118">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="K22" s="119">
         <v>0.0</v>
@@ -2649,23 +2675,23 @@
         <v>0.0</v>
       </c>
       <c r="M22" s="119">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="N22" s="118">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="O22" s="119">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="P22" s="118">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="Q22" s="120"/>
       <c r="R22" s="119">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="S22" s="118">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="57"/>
@@ -2684,27 +2710,27 @@
         <v>8</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="115"/>
       <c r="D23" s="115"/>
       <c r="E23" s="117" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F23" s="118">
-        <v>-1823.75</v>
+        <v>20.0</v>
       </c>
       <c r="G23" s="119">
-        <v>1.0</v>
+        <v>523.0</v>
       </c>
       <c r="H23" s="118">
-        <v>-1823.75</v>
+        <v>10460.0</v>
       </c>
       <c r="I23" s="119">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="J23" s="118">
-        <v>0.0</v>
+        <v>240.0</v>
       </c>
       <c r="K23" s="119">
         <v>0.0</v>
@@ -2713,23 +2739,23 @@
         <v>0.0</v>
       </c>
       <c r="M23" s="119">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="N23" s="118">
-        <v>-1823.0</v>
+        <v>240.0</v>
       </c>
       <c r="O23" s="119">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P23" s="118">
-        <v>0.0</v>
+        <v>240.0</v>
       </c>
       <c r="Q23" s="120"/>
       <c r="R23" s="119">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="S23" s="118">
-        <v>0.0</v>
+        <v>240.0</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="57"/>
@@ -2743,26 +2769,58 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" customHeight="1" ht="10">
-      <c r="A24" s="121"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="122"/>
-      <c r="S24" s="122"/>
+    <row r="24" spans="1:30" customHeight="1" ht="18">
+      <c r="A24" s="115">
+        <v>9</v>
+      </c>
+      <c r="B24" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="118">
+        <v>10.0</v>
+      </c>
+      <c r="G24" s="119">
+        <v>125.0</v>
+      </c>
+      <c r="H24" s="118">
+        <v>1250.0</v>
+      </c>
+      <c r="I24" s="119">
+        <v>32.0</v>
+      </c>
+      <c r="J24" s="118">
+        <v>320.0</v>
+      </c>
+      <c r="K24" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="119">
+        <v>32.0</v>
+      </c>
+      <c r="N24" s="118">
+        <v>320.0</v>
+      </c>
+      <c r="O24" s="119">
+        <v>32.0</v>
+      </c>
+      <c r="P24" s="118">
+        <v>320.0</v>
+      </c>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="119">
+        <v>32.0</v>
+      </c>
+      <c r="S24" s="118">
+        <v>320.0</v>
+      </c>
       <c r="T24" s="1"/>
       <c r="U24" s="57"/>
       <c r="V24" s="57"/>
@@ -2775,28 +2833,58 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" customHeight="1" ht="22">
-      <c r="A25" s="131"/>
-      <c r="B25" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="129"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="130"/>
+    <row r="25" spans="1:30" customHeight="1" ht="18">
+      <c r="A25" s="115">
+        <v>10</v>
+      </c>
+      <c r="B25" s="116" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="118">
+        <v>10.0</v>
+      </c>
+      <c r="G25" s="119">
+        <v>150.0</v>
+      </c>
+      <c r="H25" s="118">
+        <v>1500.0</v>
+      </c>
+      <c r="I25" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="L25" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="N25" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="O25" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="P25" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="118">
+        <v>0.0</v>
+      </c>
       <c r="T25" s="1"/>
       <c r="U25" s="57"/>
       <c r="V25" s="57"/>
@@ -2811,24 +2899,24 @@
     </row>
     <row r="26" spans="1:30" customHeight="1" ht="18">
       <c r="A26" s="115">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="116" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" s="115"/>
       <c r="D26" s="115"/>
       <c r="E26" s="117" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F26" s="118">
-        <v>124.0</v>
+        <v>10.0</v>
       </c>
       <c r="G26" s="119">
-        <v>0.0</v>
+        <v>120.0</v>
       </c>
       <c r="H26" s="118">
-        <v>0.0</v>
+        <v>1200.0</v>
       </c>
       <c r="I26" s="119">
         <v>0.0</v>
@@ -2873,55 +2961,57 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" customHeight="1" ht="53.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="92">
-        <f>SUM(H16:H26)</f>
-        <v>241343.25</v>
-      </c>
-      <c r="I27" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="J27" s="94">
-        <f>SUM(J16:J26)</f>
-        <v>165002.98000000001048</v>
-      </c>
-      <c r="K27" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="L27" s="96">
-        <f>SUM(L16:L26)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="98">
-        <f>SUM(N16:N26)</f>
-        <v>13942.81999999999971</v>
-      </c>
-      <c r="O27" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="100">
-        <f>SUM(P16:P26)</f>
-        <v>165002.98000000001048</v>
-      </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="S27" s="102">
-        <f>SUM(S16:S26)</f>
-        <v>165002.98000000001048</v>
+    <row r="27" spans="1:30" customHeight="1" ht="18">
+      <c r="A27" s="115">
+        <v>12</v>
+      </c>
+      <c r="B27" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="118">
+        <v>10.0</v>
+      </c>
+      <c r="G27" s="119">
+        <v>500.0</v>
+      </c>
+      <c r="H27" s="118">
+        <v>5000.0</v>
+      </c>
+      <c r="I27" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="N27" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="P27" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="S27" s="118">
+        <v>0.0</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="57"/>
@@ -2935,34 +3025,61 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" customHeight="1" ht="40">
-      <c r="A28" s="103"/>
-      <c r="B28" s="104"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="134">
-        <v>8250.14999999999964</v>
-      </c>
-      <c r="K28" s="106"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="132" t="s">
-        <v>50</v>
-      </c>
-      <c r="S28" s="133">
-        <v>8250.14999999999964</v>
-      </c>
-      <c r="T28" s="57"/>
-      <c r="U28" s="110"/>
+    <row r="28" spans="1:30" customHeight="1" ht="18">
+      <c r="A28" s="115">
+        <v>13</v>
+      </c>
+      <c r="B28" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="117" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="118">
+        <v>12.0</v>
+      </c>
+      <c r="G28" s="119">
+        <v>250.0</v>
+      </c>
+      <c r="H28" s="118">
+        <v>3000.0</v>
+      </c>
+      <c r="I28" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="K28" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -2972,36 +3089,29 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" customHeight="1" ht="48.75">
-      <c r="A29" s="103"/>
-      <c r="B29" s="104"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="134">
-        <f>J27-J28</f>
-        <v>156752.8300000000163</v>
-      </c>
-      <c r="K29" s="106"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="135" t="s">
-        <v>48</v>
-      </c>
-      <c r="S29" s="136">
-        <f>S27-S28</f>
-        <v>156752.8300000000163</v>
-      </c>
+    <row r="29" spans="1:30" customHeight="1" ht="10">
+      <c r="A29" s="121"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
       <c r="T29" s="1"/>
-      <c r="U29" s="110"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -3011,27 +3121,31 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" customHeight="1" ht="23.25">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+    <row r="30" spans="1:30" customHeight="1" ht="22">
+      <c r="A30" s="131"/>
+      <c r="B30" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="130"/>
+      <c r="S30" s="130"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -3041,27 +3155,61 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" customHeight="1" ht="29.25">
-      <c r="A31" s="103"/>
-      <c r="B31" s="104"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+    <row r="31" spans="1:30" customHeight="1" ht="18">
+      <c r="A31" s="115">
+        <v>14</v>
+      </c>
+      <c r="B31" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="118">
+        <v>124.0</v>
+      </c>
+      <c r="G31" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="119">
+        <v>34.0</v>
+      </c>
+      <c r="J31" s="118">
+        <v>4216.0</v>
+      </c>
+      <c r="K31" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="119">
+        <v>34.0</v>
+      </c>
+      <c r="N31" s="118">
+        <v>4216.0</v>
+      </c>
+      <c r="O31" s="119">
+        <v>34.0</v>
+      </c>
+      <c r="P31" s="118">
+        <v>4216.0</v>
+      </c>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="119">
+        <v>34.0</v>
+      </c>
+      <c r="S31" s="118">
+        <v>4216.0</v>
+      </c>
       <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -3071,27 +3219,61 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" customHeight="1" ht="31.5">
-      <c r="A32" s="103"/>
-      <c r="B32" s="104"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+    <row r="32" spans="1:30" customHeight="1" ht="18">
+      <c r="A32" s="115">
+        <v>15</v>
+      </c>
+      <c r="B32" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="118">
+        <v>-1823.75</v>
+      </c>
+      <c r="G32" s="119">
+        <v>1.0</v>
+      </c>
+      <c r="H32" s="118">
+        <v>-1823.75</v>
+      </c>
+      <c r="I32" s="119">
+        <v>0</v>
+      </c>
+      <c r="J32" s="118">
+        <v>0</v>
+      </c>
+      <c r="K32" s="119">
+        <v>0</v>
+      </c>
+      <c r="L32" s="118">
+        <v>0</v>
+      </c>
+      <c r="M32" s="119">
+        <v>0.971732</v>
+      </c>
+      <c r="N32" s="118">
+        <v>-1772.20000000000005</v>
+      </c>
+      <c r="O32" s="119">
+        <v>0</v>
+      </c>
+      <c r="P32" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="119">
+        <v>0</v>
+      </c>
+      <c r="S32" s="118">
+        <v>0</v>
+      </c>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -3101,27 +3283,59 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" customHeight="1" ht="30">
-      <c r="A33" s="103"/>
-      <c r="B33" s="104"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+    <row r="33" spans="1:30" customHeight="1" ht="53.25">
+      <c r="A33" s="87"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="92">
+        <f>SUM(H16:H32)</f>
+        <v>268533.25</v>
+      </c>
+      <c r="I33" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="94">
+        <f>SUM(J16:J32)</f>
+        <v>266930.5800000000163</v>
+      </c>
+      <c r="K33" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="96">
+        <f>SUM(L16:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="98">
+        <f>SUM(N16:N32)</f>
+        <v>174768.38000000000466</v>
+      </c>
+      <c r="O33" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="100">
+        <f>SUM(P16:P32)</f>
+        <v>266930.5800000000163</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="S33" s="102">
+        <f>SUM(S16:S32)</f>
+        <v>266930.5800000000163</v>
+      </c>
       <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -3131,27 +3345,34 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" customHeight="1" ht="30">
+    <row r="34" spans="1:30" customHeight="1" ht="40">
       <c r="A34" s="103"/>
       <c r="B34" s="104"/>
       <c r="E34" s="103"/>
       <c r="F34" s="105"/>
       <c r="G34" s="105"/>
       <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
+      <c r="I34" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="134">
+        <v>13135.72999999999956</v>
+      </c>
       <c r="K34" s="106"/>
-      <c r="L34" s="108"/>
+      <c r="L34" s="7"/>
       <c r="M34" s="108"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="S34" s="133">
+        <v>13135.72999999999956</v>
+      </c>
+      <c r="T34" s="57"/>
+      <c r="U34" s="110"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -3161,27 +3382,36 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" customHeight="1" ht="15">
+    <row r="35" spans="1:30" customHeight="1" ht="48.75">
       <c r="A35" s="103"/>
       <c r="B35" s="104"/>
       <c r="E35" s="103"/>
       <c r="F35" s="105"/>
       <c r="G35" s="105"/>
       <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
+      <c r="I35" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="134">
+        <f>J33-J34</f>
+        <v>253794.85000000000582</v>
+      </c>
       <c r="K35" s="106"/>
       <c r="L35" s="108"/>
       <c r="M35" s="108"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
       <c r="P35" s="111"/>
       <c r="Q35" s="112"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="R35" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="S35" s="136">
+        <f>S33-S34</f>
+        <v>253794.85000000000582</v>
+      </c>
       <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="U35" s="110"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -3191,20 +3421,20 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" customHeight="1" ht="15">
+    <row r="36" spans="1:30" customHeight="1" ht="23.25">
       <c r="A36" s="103"/>
       <c r="B36" s="104"/>
       <c r="E36" s="103"/>
       <c r="F36" s="105"/>
       <c r="G36" s="105"/>
       <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="106"/>
       <c r="L36" s="108"/>
       <c r="M36" s="108"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="114"/>
       <c r="P36" s="111"/>
       <c r="Q36" s="112"/>
       <c r="R36" s="1"/>
@@ -3221,20 +3451,20 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" customHeight="1" ht="15">
+    <row r="37" spans="1:30" customHeight="1" ht="29.25">
       <c r="A37" s="103"/>
       <c r="B37" s="104"/>
       <c r="E37" s="103"/>
       <c r="F37" s="105"/>
       <c r="G37" s="105"/>
       <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="106"/>
       <c r="L37" s="108"/>
       <c r="M37" s="108"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="114"/>
       <c r="P37" s="111"/>
       <c r="Q37" s="112"/>
       <c r="R37" s="1"/>
@@ -3251,7 +3481,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" customHeight="1" ht="15">
+    <row r="38" spans="1:30" customHeight="1" ht="31.5">
       <c r="A38" s="103"/>
       <c r="B38" s="104"/>
       <c r="E38" s="103"/>
@@ -3263,8 +3493,8 @@
       <c r="K38" s="106"/>
       <c r="L38" s="108"/>
       <c r="M38" s="108"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="114"/>
       <c r="P38" s="111"/>
       <c r="Q38" s="112"/>
       <c r="R38" s="1"/>
@@ -3281,7 +3511,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" customHeight="1" ht="15">
+    <row r="39" spans="1:30" customHeight="1" ht="30">
       <c r="A39" s="103"/>
       <c r="B39" s="104"/>
       <c r="E39" s="103"/>
@@ -3293,8 +3523,8 @@
       <c r="K39" s="106"/>
       <c r="L39" s="108"/>
       <c r="M39" s="108"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="114"/>
       <c r="P39" s="111"/>
       <c r="Q39" s="112"/>
       <c r="R39" s="1"/>
@@ -3311,7 +3541,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" customHeight="1" ht="15">
+    <row r="40" spans="1:30" customHeight="1" ht="30">
       <c r="A40" s="103"/>
       <c r="B40" s="104"/>
       <c r="E40" s="103"/>
@@ -3323,8 +3553,8 @@
       <c r="K40" s="106"/>
       <c r="L40" s="108"/>
       <c r="M40" s="108"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="114"/>
       <c r="P40" s="111"/>
       <c r="Q40" s="112"/>
       <c r="R40" s="1"/>
@@ -3799,8 +4029,8 @@
       <c r="G56" s="105"/>
       <c r="H56" s="106"/>
       <c r="I56" s="106"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
       <c r="L56" s="108"/>
       <c r="M56" s="108"/>
       <c r="N56" s="111"/>
@@ -3829,8 +4059,8 @@
       <c r="G57" s="105"/>
       <c r="H57" s="106"/>
       <c r="I57" s="106"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
       <c r="L57" s="108"/>
       <c r="M57" s="108"/>
       <c r="N57" s="111"/>
@@ -3859,8 +4089,8 @@
       <c r="G58" s="105"/>
       <c r="H58" s="106"/>
       <c r="I58" s="106"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
       <c r="L58" s="108"/>
       <c r="M58" s="108"/>
       <c r="N58" s="111"/>
@@ -3889,8 +4119,8 @@
       <c r="G59" s="105"/>
       <c r="H59" s="106"/>
       <c r="I59" s="106"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
       <c r="L59" s="108"/>
       <c r="M59" s="108"/>
       <c r="N59" s="111"/>
@@ -3919,13 +4149,13 @@
       <c r="G60" s="105"/>
       <c r="H60" s="106"/>
       <c r="I60" s="106"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="111"/>
+      <c r="O60" s="111"/>
+      <c r="P60" s="111"/>
       <c r="Q60" s="112"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -3949,13 +4179,13 @@
       <c r="G61" s="105"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="103"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
       <c r="Q61" s="112"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -3981,11 +4211,11 @@
       <c r="I62" s="106"/>
       <c r="J62" s="103"/>
       <c r="K62" s="103"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="111"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="111"/>
       <c r="Q62" s="112"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -4011,11 +4241,11 @@
       <c r="I63" s="106"/>
       <c r="J63" s="103"/>
       <c r="K63" s="103"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="111"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
       <c r="Q63" s="112"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -4041,11 +4271,11 @@
       <c r="I64" s="106"/>
       <c r="J64" s="103"/>
       <c r="K64" s="103"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="111"/>
+      <c r="O64" s="111"/>
+      <c r="P64" s="111"/>
       <c r="Q64" s="112"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -4071,11 +4301,11 @@
       <c r="I65" s="106"/>
       <c r="J65" s="103"/>
       <c r="K65" s="103"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="111"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
       <c r="Q65" s="112"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -4249,8 +4479,8 @@
       <c r="G71" s="105"/>
       <c r="H71" s="106"/>
       <c r="I71" s="106"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
+      <c r="J71" s="103"/>
+      <c r="K71" s="103"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="3"/>
@@ -4279,8 +4509,8 @@
       <c r="G72" s="105"/>
       <c r="H72" s="106"/>
       <c r="I72" s="106"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
+      <c r="J72" s="103"/>
+      <c r="K72" s="103"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="3"/>
@@ -4309,8 +4539,8 @@
       <c r="G73" s="105"/>
       <c r="H73" s="106"/>
       <c r="I73" s="106"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="103"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="3"/>
@@ -4339,8 +4569,8 @@
       <c r="G74" s="105"/>
       <c r="H74" s="106"/>
       <c r="I74" s="106"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="103"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="3"/>
@@ -4369,8 +4599,8 @@
       <c r="G75" s="105"/>
       <c r="H75" s="106"/>
       <c r="I75" s="106"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="103"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
@@ -4399,8 +4629,8 @@
       <c r="G76" s="105"/>
       <c r="H76" s="106"/>
       <c r="I76" s="106"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="J76" s="103"/>
+      <c r="K76" s="103"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="3"/>
@@ -4455,8 +4685,8 @@
       <c r="A78" s="103"/>
       <c r="B78" s="104"/>
       <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
       <c r="H78" s="106"/>
       <c r="I78" s="106"/>
       <c r="J78" s="2"/>
@@ -4485,8 +4715,8 @@
       <c r="A79" s="103"/>
       <c r="B79" s="104"/>
       <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
       <c r="H79" s="106"/>
       <c r="I79" s="106"/>
       <c r="J79" s="2"/>
@@ -4515,8 +4745,8 @@
       <c r="A80" s="103"/>
       <c r="B80" s="104"/>
       <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
       <c r="H80" s="106"/>
       <c r="I80" s="106"/>
       <c r="J80" s="2"/>
@@ -4545,8 +4775,8 @@
       <c r="A81" s="103"/>
       <c r="B81" s="104"/>
       <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
       <c r="H81" s="106"/>
       <c r="I81" s="106"/>
       <c r="J81" s="2"/>
@@ -4575,8 +4805,8 @@
       <c r="A82" s="103"/>
       <c r="B82" s="104"/>
       <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
       <c r="H82" s="106"/>
       <c r="I82" s="106"/>
       <c r="J82" s="2"/>
@@ -4605,8 +4835,8 @@
       <c r="A83" s="103"/>
       <c r="B83" s="104"/>
       <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
       <c r="H83" s="106"/>
       <c r="I83" s="106"/>
       <c r="J83" s="2"/>
@@ -5486,7 +5716,7 @@
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
+      <c r="Q112" s="112"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
@@ -5516,7 +5746,7 @@
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
+      <c r="Q113" s="112"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
@@ -5546,7 +5776,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
+      <c r="Q114" s="112"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
@@ -5576,7 +5806,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
+      <c r="Q115" s="112"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
@@ -5606,7 +5836,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
+      <c r="Q116" s="112"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
@@ -5636,7 +5866,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
+      <c r="Q117" s="112"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
@@ -6163,9 +6393,7 @@
     </row>
     <row r="135" spans="1:30" customHeight="1" ht="15">
       <c r="A135" s="103"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="B135" s="104"/>
       <c r="E135" s="103"/>
       <c r="F135" s="103"/>
       <c r="G135" s="103"/>
@@ -6195,9 +6423,7 @@
     </row>
     <row r="136" spans="1:30" customHeight="1" ht="15">
       <c r="A136" s="103"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="B136" s="104"/>
       <c r="E136" s="103"/>
       <c r="F136" s="103"/>
       <c r="G136" s="103"/>
@@ -6227,9 +6453,7 @@
     </row>
     <row r="137" spans="1:30" customHeight="1" ht="15">
       <c r="A137" s="103"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="B137" s="104"/>
       <c r="E137" s="103"/>
       <c r="F137" s="103"/>
       <c r="G137" s="103"/>
@@ -6259,9 +6483,7 @@
     </row>
     <row r="138" spans="1:30" customHeight="1" ht="15">
       <c r="A138" s="103"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="B138" s="104"/>
       <c r="E138" s="103"/>
       <c r="F138" s="103"/>
       <c r="G138" s="103"/>
@@ -6291,9 +6513,7 @@
     </row>
     <row r="139" spans="1:30" customHeight="1" ht="15">
       <c r="A139" s="103"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="B139" s="104"/>
       <c r="E139" s="103"/>
       <c r="F139" s="103"/>
       <c r="G139" s="103"/>
@@ -6323,9 +6543,7 @@
     </row>
     <row r="140" spans="1:30" customHeight="1" ht="15">
       <c r="A140" s="103"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="B140" s="104"/>
       <c r="E140" s="103"/>
       <c r="F140" s="103"/>
       <c r="G140" s="103"/>
@@ -6905,8 +7123,8 @@
       <c r="E158" s="103"/>
       <c r="F158" s="103"/>
       <c r="G158" s="103"/>
-      <c r="H158" s="103"/>
-      <c r="I158" s="103"/>
+      <c r="H158" s="106"/>
+      <c r="I158" s="106"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -6937,8 +7155,8 @@
       <c r="E159" s="103"/>
       <c r="F159" s="103"/>
       <c r="G159" s="103"/>
-      <c r="H159" s="103"/>
-      <c r="I159" s="103"/>
+      <c r="H159" s="106"/>
+      <c r="I159" s="106"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
@@ -6969,8 +7187,8 @@
       <c r="E160" s="103"/>
       <c r="F160" s="103"/>
       <c r="G160" s="103"/>
-      <c r="H160" s="103"/>
-      <c r="I160" s="103"/>
+      <c r="H160" s="106"/>
+      <c r="I160" s="106"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -7001,8 +7219,8 @@
       <c r="E161" s="103"/>
       <c r="F161" s="103"/>
       <c r="G161" s="103"/>
-      <c r="H161" s="103"/>
-      <c r="I161" s="103"/>
+      <c r="H161" s="106"/>
+      <c r="I161" s="106"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -7033,8 +7251,8 @@
       <c r="E162" s="103"/>
       <c r="F162" s="103"/>
       <c r="G162" s="103"/>
-      <c r="H162" s="103"/>
-      <c r="I162" s="103"/>
+      <c r="H162" s="106"/>
+      <c r="I162" s="106"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -7065,8 +7283,8 @@
       <c r="E163" s="103"/>
       <c r="F163" s="103"/>
       <c r="G163" s="103"/>
-      <c r="H163" s="103"/>
-      <c r="I163" s="103"/>
+      <c r="H163" s="106"/>
+      <c r="I163" s="106"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -7478,7 +7696,7 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="2"/>
+      <c r="E176" s="103"/>
       <c r="F176" s="103"/>
       <c r="G176" s="103"/>
       <c r="H176" s="103"/>
@@ -7510,7 +7728,7 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="2"/>
+      <c r="E177" s="103"/>
       <c r="F177" s="103"/>
       <c r="G177" s="103"/>
       <c r="H177" s="103"/>
@@ -7538,13 +7756,13 @@
       <c r="AD177" s="1"/>
     </row>
     <row r="178" spans="1:30" customHeight="1" ht="15">
-      <c r="A178" s="1"/>
+      <c r="A178" s="103"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
+      <c r="E178" s="103"/>
+      <c r="F178" s="103"/>
+      <c r="G178" s="103"/>
       <c r="H178" s="103"/>
       <c r="I178" s="103"/>
       <c r="J178" s="2"/>
@@ -7570,13 +7788,13 @@
       <c r="AD178" s="1"/>
     </row>
     <row r="179" spans="1:30" customHeight="1" ht="15">
-      <c r="A179" s="1"/>
+      <c r="A179" s="103"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
+      <c r="E179" s="103"/>
+      <c r="F179" s="103"/>
+      <c r="G179" s="103"/>
       <c r="H179" s="103"/>
       <c r="I179" s="103"/>
       <c r="J179" s="2"/>
@@ -7602,13 +7820,13 @@
       <c r="AD179" s="1"/>
     </row>
     <row r="180" spans="1:30" customHeight="1" ht="15">
-      <c r="A180" s="1"/>
+      <c r="A180" s="103"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
+      <c r="E180" s="103"/>
+      <c r="F180" s="103"/>
+      <c r="G180" s="103"/>
       <c r="H180" s="103"/>
       <c r="I180" s="103"/>
       <c r="J180" s="2"/>
@@ -7634,13 +7852,13 @@
       <c r="AD180" s="1"/>
     </row>
     <row r="181" spans="1:30" customHeight="1" ht="15">
-      <c r="A181" s="1"/>
+      <c r="A181" s="103"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
+      <c r="E181" s="103"/>
+      <c r="F181" s="103"/>
+      <c r="G181" s="103"/>
       <c r="H181" s="103"/>
       <c r="I181" s="103"/>
       <c r="J181" s="2"/>
@@ -7666,13 +7884,13 @@
       <c r="AD181" s="1"/>
     </row>
     <row r="182" spans="1:30" customHeight="1" ht="15">
-      <c r="A182" s="1"/>
+      <c r="A182" s="103"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
+      <c r="F182" s="103"/>
+      <c r="G182" s="103"/>
       <c r="H182" s="103"/>
       <c r="I182" s="103"/>
       <c r="J182" s="2"/>
@@ -7698,13 +7916,13 @@
       <c r="AD182" s="1"/>
     </row>
     <row r="183" spans="1:30" customHeight="1" ht="15">
-      <c r="A183" s="1"/>
+      <c r="A183" s="103"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
+      <c r="F183" s="103"/>
+      <c r="G183" s="103"/>
       <c r="H183" s="103"/>
       <c r="I183" s="103"/>
       <c r="J183" s="2"/>
@@ -7729,7 +7947,7 @@
       <c r="AC183" s="1"/>
       <c r="AD183" s="1"/>
     </row>
-    <row r="184" spans="1:30" customHeight="1" ht="15.75">
+    <row r="184" spans="1:30" customHeight="1" ht="15">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7737,8 +7955,8 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
+      <c r="H184" s="103"/>
+      <c r="I184" s="103"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
@@ -7761,7 +7979,7 @@
       <c r="AC184" s="1"/>
       <c r="AD184" s="1"/>
     </row>
-    <row r="185" spans="1:30" customHeight="1" ht="15.75">
+    <row r="185" spans="1:30" customHeight="1" ht="15">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7769,8 +7987,8 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
+      <c r="H185" s="103"/>
+      <c r="I185" s="103"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
@@ -7793,7 +8011,7 @@
       <c r="AC185" s="1"/>
       <c r="AD185" s="1"/>
     </row>
-    <row r="186" spans="1:30" customHeight="1" ht="15.75">
+    <row r="186" spans="1:30" customHeight="1" ht="15">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7801,8 +8019,8 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
+      <c r="H186" s="103"/>
+      <c r="I186" s="103"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -7825,7 +8043,7 @@
       <c r="AC186" s="1"/>
       <c r="AD186" s="1"/>
     </row>
-    <row r="187" spans="1:30" customHeight="1" ht="15.75">
+    <row r="187" spans="1:30" customHeight="1" ht="15">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7833,8 +8051,8 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
+      <c r="H187" s="103"/>
+      <c r="I187" s="103"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -7857,7 +8075,7 @@
       <c r="AC187" s="1"/>
       <c r="AD187" s="1"/>
     </row>
-    <row r="188" spans="1:30" customHeight="1" ht="15.75">
+    <row r="188" spans="1:30" customHeight="1" ht="15">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7865,8 +8083,8 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
+      <c r="H188" s="103"/>
+      <c r="I188" s="103"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -7889,7 +8107,7 @@
       <c r="AC188" s="1"/>
       <c r="AD188" s="1"/>
     </row>
-    <row r="189" spans="1:30" customHeight="1" ht="15.75">
+    <row r="189" spans="1:30" customHeight="1" ht="15">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7897,8 +8115,8 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
+      <c r="H189" s="103"/>
+      <c r="I189" s="103"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -9202,75 +9420,261 @@
       <c r="AD229" s="1"/>
     </row>
     <row r="230" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A230" s="57"/>
-      <c r="B230" s="57"/>
-      <c r="C230" s="57"/>
-      <c r="D230" s="57"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="7"/>
-      <c r="L230" s="7"/>
-      <c r="M230" s="7"/>
-      <c r="N230" s="8"/>
-      <c r="O230" s="8"/>
-      <c r="P230" s="8"/>
-      <c r="Q230" s="8"/>
-      <c r="R230" s="57"/>
-      <c r="S230" s="57"/>
-      <c r="T230" s="57"/>
-      <c r="U230" s="57"/>
-      <c r="V230" s="57"/>
-      <c r="W230" s="57"/>
-      <c r="X230" s="57"/>
-      <c r="Y230" s="57"/>
-      <c r="Z230" s="57"/>
-      <c r="AA230" s="57"/>
-      <c r="AB230" s="57"/>
-      <c r="AC230" s="57"/>
-      <c r="AD230" s="57"/>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
+      <c r="AA230" s="1"/>
+      <c r="AB230" s="1"/>
+      <c r="AC230" s="1"/>
+      <c r="AD230" s="1"/>
     </row>
     <row r="231" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A231" s="57"/>
-      <c r="B231" s="57"/>
-      <c r="C231" s="57"/>
-      <c r="D231" s="57"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
-      <c r="I231" s="7"/>
-      <c r="J231" s="7"/>
-      <c r="K231" s="7"/>
-      <c r="L231" s="7"/>
-      <c r="M231" s="7"/>
-      <c r="N231" s="8"/>
-      <c r="O231" s="8"/>
-      <c r="P231" s="8"/>
-      <c r="Q231" s="8"/>
-      <c r="R231" s="57"/>
-      <c r="S231" s="57"/>
-      <c r="T231" s="57"/>
-      <c r="U231" s="57"/>
-      <c r="V231" s="57"/>
-      <c r="W231" s="57"/>
-      <c r="X231" s="57"/>
-      <c r="Y231" s="57"/>
-      <c r="Z231" s="57"/>
-      <c r="AA231" s="57"/>
-      <c r="AB231" s="57"/>
-      <c r="AC231" s="57"/>
-      <c r="AD231" s="57"/>
-    </row>
-    <row r="232" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="233" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="234" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="235" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="236" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="237" spans="1:30" customHeight="1" ht="15.75"/>
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
+      <c r="Q231" s="3"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+    </row>
+    <row r="232" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+    </row>
+    <row r="233" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="3"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+    </row>
+    <row r="234" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+    </row>
+    <row r="235" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+    </row>
+    <row r="236" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A236" s="57"/>
+      <c r="B236" s="57"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="57"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="7"/>
+      <c r="J236" s="7"/>
+      <c r="K236" s="7"/>
+      <c r="L236" s="7"/>
+      <c r="M236" s="7"/>
+      <c r="N236" s="8"/>
+      <c r="O236" s="8"/>
+      <c r="P236" s="8"/>
+      <c r="Q236" s="8"/>
+      <c r="R236" s="57"/>
+      <c r="S236" s="57"/>
+      <c r="T236" s="57"/>
+      <c r="U236" s="57"/>
+      <c r="V236" s="57"/>
+      <c r="W236" s="57"/>
+      <c r="X236" s="57"/>
+      <c r="Y236" s="57"/>
+      <c r="Z236" s="57"/>
+      <c r="AA236" s="57"/>
+      <c r="AB236" s="57"/>
+      <c r="AC236" s="57"/>
+      <c r="AD236" s="57"/>
+    </row>
+    <row r="237" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A237" s="57"/>
+      <c r="B237" s="57"/>
+      <c r="C237" s="57"/>
+      <c r="D237" s="57"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="7"/>
+      <c r="J237" s="7"/>
+      <c r="K237" s="7"/>
+      <c r="L237" s="7"/>
+      <c r="M237" s="7"/>
+      <c r="N237" s="8"/>
+      <c r="O237" s="8"/>
+      <c r="P237" s="8"/>
+      <c r="Q237" s="8"/>
+      <c r="R237" s="57"/>
+      <c r="S237" s="57"/>
+      <c r="T237" s="57"/>
+      <c r="U237" s="57"/>
+      <c r="V237" s="57"/>
+      <c r="W237" s="57"/>
+      <c r="X237" s="57"/>
+      <c r="Y237" s="57"/>
+      <c r="Z237" s="57"/>
+      <c r="AA237" s="57"/>
+      <c r="AB237" s="57"/>
+      <c r="AC237" s="57"/>
+      <c r="AD237" s="57"/>
+    </row>
     <row r="238" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="239" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="240" spans="1:30" customHeight="1" ht="15.75"/>
@@ -10045,6 +10449,12 @@
     <row r="1009" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="1010" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="1011" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1012" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1013" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1014" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1015" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1016" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1017" spans="1:30" customHeight="1" ht="15.75"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="G3:J3"/>
@@ -10070,28 +10480,22 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:P8"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:R12"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B94:D94"/>
@@ -10121,26 +10525,26 @@
     <mergeCell ref="B118:D118"/>
     <mergeCell ref="B119:D119"/>
     <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B127:D127"/>
     <mergeCell ref="B128:D128"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10184,6 +10588,12 @@
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B84:D84"/>
     <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
@@ -10192,8 +10602,14 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.387917" bottom="0.45125" header="0" footer="0"/>

--- a/public/uploads/invoice/ERS05071-Invoice1.xlsx
+++ b/public/uploads/invoice/ERS05071-Invoice1.xlsx
@@ -235,13 +235,13 @@
     <t>6' CONCRETE SIDEWALK</t>
   </si>
   <si>
+    <t>BOND</t>
+  </si>
+  <si>
     <t>CHANGE ORDER IN OCTOBER 2025</t>
   </si>
   <si>
     <t>SIDEWALK ON BRIDGE 10 IN W/REINF</t>
-  </si>
-  <si>
-    <t>BOND</t>
   </si>
   <si>
     <t>SY</t>
@@ -2291,10 +2291,10 @@
         <v>0.0</v>
       </c>
       <c r="M16" s="119">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
       <c r="N16" s="118">
-        <v>2001.0</v>
+        <v>4350.0</v>
       </c>
       <c r="O16" s="119">
         <v>25.0</v>
@@ -3089,26 +3089,58 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" customHeight="1" ht="10">
-      <c r="A29" s="121"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
+    <row r="29" spans="1:30" customHeight="1" ht="18">
+      <c r="A29" s="115">
+        <v>14</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="118">
+        <v>-1823.75</v>
+      </c>
+      <c r="G29" s="119">
+        <v>1.0</v>
+      </c>
+      <c r="H29" s="118">
+        <v>-1823.75</v>
+      </c>
+      <c r="I29" s="119">
+        <v>0</v>
+      </c>
+      <c r="J29" s="118">
+        <v>0</v>
+      </c>
+      <c r="K29" s="119">
+        <v>0</v>
+      </c>
+      <c r="L29" s="118">
+        <v>0</v>
+      </c>
+      <c r="M29" s="119">
+        <v>0.971732</v>
+      </c>
+      <c r="N29" s="118">
+        <v>-1772.20000000000005</v>
+      </c>
+      <c r="O29" s="119">
+        <v>0</v>
+      </c>
+      <c r="P29" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="119">
+        <v>0</v>
+      </c>
+      <c r="S29" s="118">
+        <v>0</v>
+      </c>
       <c r="T29" s="1"/>
       <c r="U29" s="57"/>
       <c r="V29" s="57"/>
@@ -3121,28 +3153,26 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" customHeight="1" ht="22">
-      <c r="A30" s="131"/>
-      <c r="B30" s="123" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="126"/>
-      <c r="K30" s="127"/>
-      <c r="L30" s="127"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="130"/>
-      <c r="S30" s="130"/>
+    <row r="30" spans="1:30" customHeight="1" ht="10">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
       <c r="T30" s="1"/>
       <c r="U30" s="57"/>
       <c r="V30" s="57"/>
@@ -3155,58 +3185,28 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" customHeight="1" ht="18">
-      <c r="A31" s="115">
-        <v>14</v>
-      </c>
-      <c r="B31" s="116" t="s">
+    <row r="31" spans="1:30" customHeight="1" ht="22">
+      <c r="A31" s="131"/>
+      <c r="B31" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="118">
-        <v>124.0</v>
-      </c>
-      <c r="G31" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="H31" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="119">
-        <v>34.0</v>
-      </c>
-      <c r="J31" s="118">
-        <v>4216.0</v>
-      </c>
-      <c r="K31" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="L31" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="M31" s="119">
-        <v>34.0</v>
-      </c>
-      <c r="N31" s="118">
-        <v>4216.0</v>
-      </c>
-      <c r="O31" s="119">
-        <v>34.0</v>
-      </c>
-      <c r="P31" s="118">
-        <v>4216.0</v>
-      </c>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="119">
-        <v>34.0</v>
-      </c>
-      <c r="S31" s="118">
-        <v>4216.0</v>
-      </c>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="124"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
       <c r="T31" s="1"/>
       <c r="U31" s="57"/>
       <c r="V31" s="57"/>
@@ -3229,47 +3229,47 @@
       <c r="C32" s="115"/>
       <c r="D32" s="115"/>
       <c r="E32" s="117" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F32" s="118">
-        <v>-1823.75</v>
+        <v>124.0</v>
       </c>
       <c r="G32" s="119">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H32" s="118">
-        <v>-1823.75</v>
+        <v>0.0</v>
       </c>
       <c r="I32" s="119">
-        <v>0</v>
+        <v>34.0</v>
       </c>
       <c r="J32" s="118">
-        <v>0</v>
+        <v>4216.0</v>
       </c>
       <c r="K32" s="119">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L32" s="118">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M32" s="119">
-        <v>0.971732</v>
+        <v>34.0</v>
       </c>
       <c r="N32" s="118">
-        <v>-1772.20000000000005</v>
+        <v>4216.0</v>
       </c>
       <c r="O32" s="119">
-        <v>0</v>
+        <v>34.0</v>
       </c>
       <c r="P32" s="118">
-        <v>0</v>
+        <v>4216.0</v>
       </c>
       <c r="Q32" s="120"/>
       <c r="R32" s="119">
-        <v>0</v>
+        <v>34.0</v>
       </c>
       <c r="S32" s="118">
-        <v>0</v>
+        <v>4216.0</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="57"/>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="N33" s="98">
         <f>SUM(N16:N32)</f>
-        <v>174768.38000000000466</v>
+        <v>177117.38000000000466</v>
       </c>
       <c r="O33" s="99" t="s">
         <v>54</v>
@@ -10607,7 +10607,7 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
   </mergeCells>

--- a/public/uploads/invoice/ERS05071-Invoice1.xlsx
+++ b/public/uploads/invoice/ERS05071-Invoice1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Client Invoice Export" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Client Invoice Export'!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Client Invoice Export'!$A$1:$T$31</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>INVOICE</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Lakeview Road Bridge</t>
   </si>
   <si>
-    <t>02/09/2026</t>
+    <t>02/13/2026</t>
   </si>
   <si>
     <t>1258 Willingham Dr</t>
@@ -223,18 +223,6 @@
     <t>ADJUST WATER VALVE TO GRADE</t>
   </si>
   <si>
-    <t>4 IN SIDEWALK $5 LOT</t>
-  </si>
-  <si>
-    <t>4 INCH V-GUTTER</t>
-  </si>
-  <si>
-    <t>6 IN DUMPSTER PAD (DOES NOT INCLUDE CATCH BASIN)</t>
-  </si>
-  <si>
-    <t>6' CONCRETE SIDEWALK</t>
-  </si>
-  <si>
     <t>BOND</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
   </si>
   <si>
     <t>LF</t>
-  </si>
-  <si>
-    <t>SF</t>
   </si>
   <si>
     <t>LS</t>
@@ -1636,10 +1621,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD1017"/>
+  <dimension ref="A1:AD1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="14.43" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2267,16 +2252,16 @@
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
       <c r="E16" s="117" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="118">
         <v>87.0</v>
       </c>
       <c r="G16" s="119">
-        <v>53.0</v>
+        <v>48.0</v>
       </c>
       <c r="H16" s="118">
-        <v>4611.0</v>
+        <v>4176.0</v>
       </c>
       <c r="I16" s="119">
         <v>25.0</v>
@@ -2291,10 +2276,10 @@
         <v>0.0</v>
       </c>
       <c r="M16" s="119">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" s="118">
-        <v>4350.0</v>
+        <v>0.0</v>
       </c>
       <c r="O16" s="119">
         <v>25.0</v>
@@ -2331,7 +2316,7 @@
       <c r="C17" s="115"/>
       <c r="D17" s="115"/>
       <c r="E17" s="117" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F17" s="118">
         <v>58.0</v>
@@ -2355,10 +2340,10 @@
         <v>0.0</v>
       </c>
       <c r="M17" s="119">
-        <v>993.50999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="N17" s="118">
-        <v>57623.58000000000175</v>
+        <v>0.0</v>
       </c>
       <c r="O17" s="119">
         <v>993.50999999999999</v>
@@ -2395,7 +2380,7 @@
       <c r="C18" s="115"/>
       <c r="D18" s="115"/>
       <c r="E18" s="117" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F18" s="118">
         <v>386.0</v>
@@ -2419,10 +2404,10 @@
         <v>0.0</v>
       </c>
       <c r="M18" s="119">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="N18" s="118">
-        <v>15440.0</v>
+        <v>0.0</v>
       </c>
       <c r="O18" s="119">
         <v>40.0</v>
@@ -2459,7 +2444,7 @@
       <c r="C19" s="115"/>
       <c r="D19" s="115"/>
       <c r="E19" s="117" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19" s="118">
         <v>2200.0</v>
@@ -2483,10 +2468,10 @@
         <v>0.0</v>
       </c>
       <c r="M19" s="119">
-        <v>35.5</v>
+        <v>0.0</v>
       </c>
       <c r="N19" s="118">
-        <v>78100.0</v>
+        <v>0.0</v>
       </c>
       <c r="O19" s="119">
         <v>35.5</v>
@@ -2523,7 +2508,7 @@
       <c r="C20" s="115"/>
       <c r="D20" s="115"/>
       <c r="E20" s="117" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20" s="118">
         <v>800.0</v>
@@ -2547,10 +2532,10 @@
         <v>0.0</v>
       </c>
       <c r="M20" s="119">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="N20" s="118">
-        <v>17600.0</v>
+        <v>0.0</v>
       </c>
       <c r="O20" s="119">
         <v>22.0</v>
@@ -2587,7 +2572,7 @@
       <c r="C21" s="115"/>
       <c r="D21" s="115"/>
       <c r="E21" s="117" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F21" s="118">
         <v>36.0</v>
@@ -2651,7 +2636,7 @@
       <c r="C22" s="115"/>
       <c r="D22" s="115"/>
       <c r="E22" s="117" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22" s="118">
         <v>20.0</v>
@@ -2675,10 +2660,10 @@
         <v>0.0</v>
       </c>
       <c r="M22" s="119">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="N22" s="118">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22" s="119">
         <v>50.0</v>
@@ -2715,7 +2700,7 @@
       <c r="C23" s="115"/>
       <c r="D23" s="115"/>
       <c r="E23" s="117" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F23" s="118">
         <v>20.0</v>
@@ -2739,10 +2724,10 @@
         <v>0.0</v>
       </c>
       <c r="M23" s="119">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N23" s="118">
-        <v>240.0</v>
+        <v>0.0</v>
       </c>
       <c r="O23" s="119">
         <v>12.0</v>
@@ -2779,7 +2764,7 @@
       <c r="C24" s="115"/>
       <c r="D24" s="115"/>
       <c r="E24" s="117" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F24" s="118">
         <v>10.0</v>
@@ -2803,10 +2788,10 @@
         <v>0.0</v>
       </c>
       <c r="M24" s="119">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="N24" s="118">
-        <v>320.0</v>
+        <v>0.0</v>
       </c>
       <c r="O24" s="119">
         <v>32.0</v>
@@ -2846,19 +2831,19 @@
         <v>75</v>
       </c>
       <c r="F25" s="118">
-        <v>10.0</v>
+        <v>-1823.75</v>
       </c>
       <c r="G25" s="119">
-        <v>150.0</v>
+        <v>1.0</v>
       </c>
       <c r="H25" s="118">
-        <v>1500.0</v>
+        <v>-1823.75</v>
       </c>
       <c r="I25" s="119">
-        <v>0.0</v>
+        <v>0.97</v>
       </c>
       <c r="J25" s="118">
-        <v>0.0</v>
+        <v>-1769.037499999999909</v>
       </c>
       <c r="K25" s="119">
         <v>0.0</v>
@@ -2867,23 +2852,23 @@
         <v>0.0</v>
       </c>
       <c r="M25" s="119">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="118">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O25" s="119">
-        <v>0.0</v>
+        <v>0.973298</v>
       </c>
       <c r="P25" s="118">
-        <v>0.0</v>
+        <v>-1775.049999999999955</v>
       </c>
       <c r="Q25" s="120"/>
       <c r="R25" s="119">
-        <v>0.0</v>
+        <v>0.973298</v>
       </c>
       <c r="S25" s="118">
-        <v>0.0</v>
+        <v>-1775.049999999999955</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="57"/>
@@ -2897,58 +2882,26 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" customHeight="1" ht="18">
-      <c r="A26" s="115">
-        <v>11</v>
-      </c>
-      <c r="B26" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="118">
-        <v>10.0</v>
-      </c>
-      <c r="G26" s="119">
-        <v>120.0</v>
-      </c>
-      <c r="H26" s="118">
-        <v>1200.0</v>
-      </c>
-      <c r="I26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="K26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="L26" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="M26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="O26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="P26" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="S26" s="118">
-        <v>0.0</v>
-      </c>
+    <row r="26" spans="1:30" customHeight="1" ht="10">
+      <c r="A26" s="121"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
       <c r="T26" s="1"/>
       <c r="U26" s="57"/>
       <c r="V26" s="57"/>
@@ -2961,58 +2914,28 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" customHeight="1" ht="18">
-      <c r="A27" s="115">
-        <v>12</v>
-      </c>
-      <c r="B27" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="118">
-        <v>10.0</v>
-      </c>
-      <c r="G27" s="119">
-        <v>500.0</v>
-      </c>
-      <c r="H27" s="118">
-        <v>5000.0</v>
-      </c>
-      <c r="I27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="J27" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="K27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="L27" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="M27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="N27" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="O27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="P27" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="S27" s="118">
-        <v>0.0</v>
-      </c>
+    <row r="27" spans="1:30" customHeight="1" ht="22">
+      <c r="A27" s="131"/>
+      <c r="B27" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="130"/>
+      <c r="S27" s="130"/>
       <c r="T27" s="1"/>
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
@@ -3027,30 +2950,30 @@
     </row>
     <row r="28" spans="1:30" customHeight="1" ht="18">
       <c r="A28" s="115">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="115"/>
       <c r="D28" s="115"/>
       <c r="E28" s="117" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F28" s="118">
-        <v>12.0</v>
+        <v>124.0</v>
       </c>
       <c r="G28" s="119">
-        <v>250.0</v>
+        <v>5.0</v>
       </c>
       <c r="H28" s="118">
-        <v>3000.0</v>
+        <v>620.0</v>
       </c>
       <c r="I28" s="119">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="J28" s="118">
-        <v>0.0</v>
+        <v>4216.0</v>
       </c>
       <c r="K28" s="119">
         <v>0.0</v>
@@ -3065,17 +2988,17 @@
         <v>0.0</v>
       </c>
       <c r="O28" s="119">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="P28" s="118">
-        <v>0.0</v>
+        <v>4216.0</v>
       </c>
       <c r="Q28" s="120"/>
       <c r="R28" s="119">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="S28" s="118">
-        <v>0.0</v>
+        <v>4216.0</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="57"/>
@@ -3089,57 +3012,55 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" customHeight="1" ht="18">
-      <c r="A29" s="115">
-        <v>14</v>
-      </c>
-      <c r="B29" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="118">
-        <v>-1823.75</v>
-      </c>
-      <c r="G29" s="119">
-        <v>1.0</v>
-      </c>
-      <c r="H29" s="118">
-        <v>-1823.75</v>
-      </c>
-      <c r="I29" s="119">
+    <row r="29" spans="1:30" customHeight="1" ht="53.25">
+      <c r="A29" s="87"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="92">
+        <f>SUM(H16:H28)</f>
+        <v>258018.25</v>
+      </c>
+      <c r="I29" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="94">
+        <f>SUM(J16:J28)</f>
+        <v>265161.54249999998137</v>
+      </c>
+      <c r="K29" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" s="96">
+        <f>SUM(L16:L28)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="118">
+      <c r="M29" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="98">
+        <f>SUM(N16:N28)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="119">
-        <v>0</v>
-      </c>
-      <c r="L29" s="118">
-        <v>0</v>
-      </c>
-      <c r="M29" s="119">
-        <v>0.971732</v>
-      </c>
-      <c r="N29" s="118">
-        <v>-1772.20000000000005</v>
-      </c>
-      <c r="O29" s="119">
-        <v>0</v>
-      </c>
-      <c r="P29" s="118">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="119">
-        <v>0</v>
-      </c>
-      <c r="S29" s="118">
-        <v>0</v>
+      <c r="O29" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="100">
+        <f>SUM(P16:P28)</f>
+        <v>265155.53000000002794</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="S29" s="102">
+        <f>SUM(S16:S28)</f>
+        <v>265155.53000000002794</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="57"/>
@@ -3153,29 +3074,34 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" customHeight="1" ht="10">
-      <c r="A30" s="121"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
+    <row r="30" spans="1:30" customHeight="1" ht="40">
+      <c r="A30" s="103"/>
+      <c r="B30" s="104"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="134">
+        <v>13135.72999999999956</v>
+      </c>
+      <c r="K30" s="106"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="109"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
+      <c r="R30" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="S30" s="133">
+        <v>13135.72999999999956</v>
+      </c>
+      <c r="T30" s="57"/>
+      <c r="U30" s="110"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -3185,31 +3111,36 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" customHeight="1" ht="22">
-      <c r="A31" s="131"/>
-      <c r="B31" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
+    <row r="31" spans="1:30" customHeight="1" ht="48.75">
+      <c r="A31" s="103"/>
+      <c r="B31" s="104"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="134">
+        <f>J29-J30</f>
+        <v>252025.8124999999709</v>
+      </c>
+      <c r="K31" s="106"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="136">
+        <f>S29-S30</f>
+        <v>252019.80000000001746</v>
+      </c>
       <c r="T31" s="1"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
+      <c r="U31" s="110"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -3219,61 +3150,27 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" customHeight="1" ht="18">
-      <c r="A32" s="115">
-        <v>15</v>
-      </c>
-      <c r="B32" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="118">
-        <v>124.0</v>
-      </c>
-      <c r="G32" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="I32" s="119">
-        <v>34.0</v>
-      </c>
-      <c r="J32" s="118">
-        <v>4216.0</v>
-      </c>
-      <c r="K32" s="119">
-        <v>0.0</v>
-      </c>
-      <c r="L32" s="118">
-        <v>0.0</v>
-      </c>
-      <c r="M32" s="119">
-        <v>34.0</v>
-      </c>
-      <c r="N32" s="118">
-        <v>4216.0</v>
-      </c>
-      <c r="O32" s="119">
-        <v>34.0</v>
-      </c>
-      <c r="P32" s="118">
-        <v>4216.0</v>
-      </c>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="119">
-        <v>34.0</v>
-      </c>
-      <c r="S32" s="118">
-        <v>4216.0</v>
-      </c>
+    <row r="32" spans="1:30" customHeight="1" ht="23.25">
+      <c r="A32" s="103"/>
+      <c r="B32" s="104"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -3283,59 +3180,27 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" customHeight="1" ht="53.25">
-      <c r="A33" s="87"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="92">
-        <f>SUM(H16:H32)</f>
-        <v>268533.25</v>
-      </c>
-      <c r="I33" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="94">
-        <f>SUM(J16:J32)</f>
-        <v>266930.5800000000163</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="96">
-        <f>SUM(L16:L32)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="98">
-        <f>SUM(N16:N32)</f>
-        <v>177117.38000000000466</v>
-      </c>
-      <c r="O33" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="100">
-        <f>SUM(P16:P32)</f>
-        <v>266930.5800000000163</v>
-      </c>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="S33" s="102">
-        <f>SUM(S16:S32)</f>
-        <v>266930.5800000000163</v>
-      </c>
+    <row r="33" spans="1:30" customHeight="1" ht="29.25">
+      <c r="A33" s="103"/>
+      <c r="B33" s="104"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="113"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -3345,34 +3210,27 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" customHeight="1" ht="40">
+    <row r="34" spans="1:30" customHeight="1" ht="31.5">
       <c r="A34" s="103"/>
       <c r="B34" s="104"/>
       <c r="E34" s="103"/>
       <c r="F34" s="105"/>
       <c r="G34" s="105"/>
       <c r="H34" s="106"/>
-      <c r="I34" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="134">
-        <v>13135.72999999999956</v>
-      </c>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
       <c r="K34" s="106"/>
-      <c r="L34" s="7"/>
+      <c r="L34" s="108"/>
       <c r="M34" s="108"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="S34" s="133">
-        <v>13135.72999999999956</v>
-      </c>
-      <c r="T34" s="57"/>
-      <c r="U34" s="110"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -3382,36 +3240,27 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" customHeight="1" ht="48.75">
+    <row r="35" spans="1:30" customHeight="1" ht="30">
       <c r="A35" s="103"/>
       <c r="B35" s="104"/>
       <c r="E35" s="103"/>
       <c r="F35" s="105"/>
       <c r="G35" s="105"/>
       <c r="H35" s="106"/>
-      <c r="I35" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="134">
-        <f>J33-J34</f>
-        <v>253794.85000000000582</v>
-      </c>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
       <c r="K35" s="106"/>
       <c r="L35" s="108"/>
       <c r="M35" s="108"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="114"/>
       <c r="P35" s="111"/>
       <c r="Q35" s="112"/>
-      <c r="R35" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="S35" s="136">
-        <f>S33-S34</f>
-        <v>253794.85000000000582</v>
-      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="110"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -3421,15 +3270,15 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" customHeight="1" ht="23.25">
+    <row r="36" spans="1:30" customHeight="1" ht="30">
       <c r="A36" s="103"/>
       <c r="B36" s="104"/>
       <c r="E36" s="103"/>
       <c r="F36" s="105"/>
       <c r="G36" s="105"/>
       <c r="H36" s="106"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
       <c r="K36" s="106"/>
       <c r="L36" s="108"/>
       <c r="M36" s="108"/>
@@ -3451,20 +3300,20 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" customHeight="1" ht="29.25">
+    <row r="37" spans="1:30" customHeight="1" ht="15">
       <c r="A37" s="103"/>
       <c r="B37" s="104"/>
       <c r="E37" s="103"/>
       <c r="F37" s="105"/>
       <c r="G37" s="105"/>
       <c r="H37" s="106"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
       <c r="K37" s="106"/>
       <c r="L37" s="108"/>
       <c r="M37" s="108"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="114"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
       <c r="P37" s="111"/>
       <c r="Q37" s="112"/>
       <c r="R37" s="1"/>
@@ -3481,7 +3330,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" customHeight="1" ht="31.5">
+    <row r="38" spans="1:30" customHeight="1" ht="15">
       <c r="A38" s="103"/>
       <c r="B38" s="104"/>
       <c r="E38" s="103"/>
@@ -3493,8 +3342,8 @@
       <c r="K38" s="106"/>
       <c r="L38" s="108"/>
       <c r="M38" s="108"/>
-      <c r="N38" s="113"/>
-      <c r="O38" s="114"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
       <c r="P38" s="111"/>
       <c r="Q38" s="112"/>
       <c r="R38" s="1"/>
@@ -3511,7 +3360,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" customHeight="1" ht="30">
+    <row r="39" spans="1:30" customHeight="1" ht="15">
       <c r="A39" s="103"/>
       <c r="B39" s="104"/>
       <c r="E39" s="103"/>
@@ -3523,8 +3372,8 @@
       <c r="K39" s="106"/>
       <c r="L39" s="108"/>
       <c r="M39" s="108"/>
-      <c r="N39" s="113"/>
-      <c r="O39" s="114"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
       <c r="P39" s="111"/>
       <c r="Q39" s="112"/>
       <c r="R39" s="1"/>
@@ -3541,7 +3390,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" customHeight="1" ht="30">
+    <row r="40" spans="1:30" customHeight="1" ht="15">
       <c r="A40" s="103"/>
       <c r="B40" s="104"/>
       <c r="E40" s="103"/>
@@ -3553,8 +3402,8 @@
       <c r="K40" s="106"/>
       <c r="L40" s="108"/>
       <c r="M40" s="108"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="114"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="111"/>
       <c r="P40" s="111"/>
       <c r="Q40" s="112"/>
       <c r="R40" s="1"/>
@@ -4089,8 +3938,8 @@
       <c r="G58" s="105"/>
       <c r="H58" s="106"/>
       <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
       <c r="L58" s="108"/>
       <c r="M58" s="108"/>
       <c r="N58" s="111"/>
@@ -4119,8 +3968,8 @@
       <c r="G59" s="105"/>
       <c r="H59" s="106"/>
       <c r="I59" s="106"/>
-      <c r="J59" s="106"/>
-      <c r="K59" s="106"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
       <c r="L59" s="108"/>
       <c r="M59" s="108"/>
       <c r="N59" s="111"/>
@@ -4149,8 +3998,8 @@
       <c r="G60" s="105"/>
       <c r="H60" s="106"/>
       <c r="I60" s="106"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="103"/>
       <c r="L60" s="108"/>
       <c r="M60" s="108"/>
       <c r="N60" s="111"/>
@@ -4179,8 +4028,8 @@
       <c r="G61" s="105"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="106"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="103"/>
       <c r="L61" s="108"/>
       <c r="M61" s="108"/>
       <c r="N61" s="111"/>
@@ -4211,11 +4060,11 @@
       <c r="I62" s="106"/>
       <c r="J62" s="103"/>
       <c r="K62" s="103"/>
-      <c r="L62" s="108"/>
-      <c r="M62" s="108"/>
-      <c r="N62" s="111"/>
-      <c r="O62" s="111"/>
-      <c r="P62" s="111"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
       <c r="Q62" s="112"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -4241,11 +4090,11 @@
       <c r="I63" s="106"/>
       <c r="J63" s="103"/>
       <c r="K63" s="103"/>
-      <c r="L63" s="108"/>
-      <c r="M63" s="108"/>
-      <c r="N63" s="111"/>
-      <c r="O63" s="111"/>
-      <c r="P63" s="111"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
       <c r="Q63" s="112"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -4271,11 +4120,11 @@
       <c r="I64" s="106"/>
       <c r="J64" s="103"/>
       <c r="K64" s="103"/>
-      <c r="L64" s="108"/>
-      <c r="M64" s="108"/>
-      <c r="N64" s="111"/>
-      <c r="O64" s="111"/>
-      <c r="P64" s="111"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
       <c r="Q64" s="112"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -4301,11 +4150,11 @@
       <c r="I65" s="106"/>
       <c r="J65" s="103"/>
       <c r="K65" s="103"/>
-      <c r="L65" s="108"/>
-      <c r="M65" s="108"/>
-      <c r="N65" s="111"/>
-      <c r="O65" s="111"/>
-      <c r="P65" s="111"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
       <c r="Q65" s="112"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -4539,8 +4388,8 @@
       <c r="G73" s="105"/>
       <c r="H73" s="106"/>
       <c r="I73" s="106"/>
-      <c r="J73" s="103"/>
-      <c r="K73" s="103"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="3"/>
@@ -4569,8 +4418,8 @@
       <c r="G74" s="105"/>
       <c r="H74" s="106"/>
       <c r="I74" s="106"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="3"/>
@@ -4599,8 +4448,8 @@
       <c r="G75" s="105"/>
       <c r="H75" s="106"/>
       <c r="I75" s="106"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
@@ -4629,8 +4478,8 @@
       <c r="G76" s="105"/>
       <c r="H76" s="106"/>
       <c r="I76" s="106"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="3"/>
@@ -4745,8 +4594,8 @@
       <c r="A80" s="103"/>
       <c r="B80" s="104"/>
       <c r="E80" s="103"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="105"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="103"/>
       <c r="H80" s="106"/>
       <c r="I80" s="106"/>
       <c r="J80" s="2"/>
@@ -4775,8 +4624,8 @@
       <c r="A81" s="103"/>
       <c r="B81" s="104"/>
       <c r="E81" s="103"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
       <c r="H81" s="106"/>
       <c r="I81" s="106"/>
       <c r="J81" s="2"/>
@@ -4805,8 +4654,8 @@
       <c r="A82" s="103"/>
       <c r="B82" s="104"/>
       <c r="E82" s="103"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="103"/>
       <c r="H82" s="106"/>
       <c r="I82" s="106"/>
       <c r="J82" s="2"/>
@@ -4835,8 +4684,8 @@
       <c r="A83" s="103"/>
       <c r="B83" s="104"/>
       <c r="E83" s="103"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
       <c r="H83" s="106"/>
       <c r="I83" s="106"/>
       <c r="J83" s="2"/>
@@ -5776,7 +5625,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
-      <c r="Q114" s="112"/>
+      <c r="Q114" s="3"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
@@ -5806,7 +5655,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="112"/>
+      <c r="Q115" s="3"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
@@ -5836,7 +5685,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
-      <c r="Q116" s="112"/>
+      <c r="Q116" s="3"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
@@ -5866,7 +5715,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
-      <c r="Q117" s="112"/>
+      <c r="Q117" s="3"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
@@ -6453,7 +6302,9 @@
     </row>
     <row r="137" spans="1:30" customHeight="1" ht="15">
       <c r="A137" s="103"/>
-      <c r="B137" s="104"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
       <c r="E137" s="103"/>
       <c r="F137" s="103"/>
       <c r="G137" s="103"/>
@@ -6483,7 +6334,9 @@
     </row>
     <row r="138" spans="1:30" customHeight="1" ht="15">
       <c r="A138" s="103"/>
-      <c r="B138" s="104"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
       <c r="E138" s="103"/>
       <c r="F138" s="103"/>
       <c r="G138" s="103"/>
@@ -6513,7 +6366,9 @@
     </row>
     <row r="139" spans="1:30" customHeight="1" ht="15">
       <c r="A139" s="103"/>
-      <c r="B139" s="104"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
       <c r="E139" s="103"/>
       <c r="F139" s="103"/>
       <c r="G139" s="103"/>
@@ -6543,7 +6398,9 @@
     </row>
     <row r="140" spans="1:30" customHeight="1" ht="15">
       <c r="A140" s="103"/>
-      <c r="B140" s="104"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
       <c r="E140" s="103"/>
       <c r="F140" s="103"/>
       <c r="G140" s="103"/>
@@ -7187,8 +7044,8 @@
       <c r="E160" s="103"/>
       <c r="F160" s="103"/>
       <c r="G160" s="103"/>
-      <c r="H160" s="106"/>
-      <c r="I160" s="106"/>
+      <c r="H160" s="103"/>
+      <c r="I160" s="103"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -7219,8 +7076,8 @@
       <c r="E161" s="103"/>
       <c r="F161" s="103"/>
       <c r="G161" s="103"/>
-      <c r="H161" s="106"/>
-      <c r="I161" s="106"/>
+      <c r="H161" s="103"/>
+      <c r="I161" s="103"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -7251,8 +7108,8 @@
       <c r="E162" s="103"/>
       <c r="F162" s="103"/>
       <c r="G162" s="103"/>
-      <c r="H162" s="106"/>
-      <c r="I162" s="106"/>
+      <c r="H162" s="103"/>
+      <c r="I162" s="103"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -7283,8 +7140,8 @@
       <c r="E163" s="103"/>
       <c r="F163" s="103"/>
       <c r="G163" s="103"/>
-      <c r="H163" s="106"/>
-      <c r="I163" s="106"/>
+      <c r="H163" s="103"/>
+      <c r="I163" s="103"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -7760,7 +7617,7 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="103"/>
+      <c r="E178" s="2"/>
       <c r="F178" s="103"/>
       <c r="G178" s="103"/>
       <c r="H178" s="103"/>
@@ -7792,7 +7649,7 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="103"/>
+      <c r="E179" s="2"/>
       <c r="F179" s="103"/>
       <c r="G179" s="103"/>
       <c r="H179" s="103"/>
@@ -7820,13 +7677,13 @@
       <c r="AD179" s="1"/>
     </row>
     <row r="180" spans="1:30" customHeight="1" ht="15">
-      <c r="A180" s="103"/>
+      <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="103"/>
-      <c r="F180" s="103"/>
-      <c r="G180" s="103"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
       <c r="H180" s="103"/>
       <c r="I180" s="103"/>
       <c r="J180" s="2"/>
@@ -7852,13 +7709,13 @@
       <c r="AD180" s="1"/>
     </row>
     <row r="181" spans="1:30" customHeight="1" ht="15">
-      <c r="A181" s="103"/>
+      <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="103"/>
-      <c r="F181" s="103"/>
-      <c r="G181" s="103"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
       <c r="H181" s="103"/>
       <c r="I181" s="103"/>
       <c r="J181" s="2"/>
@@ -7884,13 +7741,13 @@
       <c r="AD181" s="1"/>
     </row>
     <row r="182" spans="1:30" customHeight="1" ht="15">
-      <c r="A182" s="103"/>
+      <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
-      <c r="F182" s="103"/>
-      <c r="G182" s="103"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
       <c r="H182" s="103"/>
       <c r="I182" s="103"/>
       <c r="J182" s="2"/>
@@ -7916,13 +7773,13 @@
       <c r="AD182" s="1"/>
     </row>
     <row r="183" spans="1:30" customHeight="1" ht="15">
-      <c r="A183" s="103"/>
+      <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="103"/>
-      <c r="G183" s="103"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
       <c r="H183" s="103"/>
       <c r="I183" s="103"/>
       <c r="J183" s="2"/>
@@ -8011,7 +7868,7 @@
       <c r="AC185" s="1"/>
       <c r="AD185" s="1"/>
     </row>
-    <row r="186" spans="1:30" customHeight="1" ht="15">
+    <row r="186" spans="1:30" customHeight="1" ht="15.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -8019,8 +7876,8 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-      <c r="H186" s="103"/>
-      <c r="I186" s="103"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -8043,7 +7900,7 @@
       <c r="AC186" s="1"/>
       <c r="AD186" s="1"/>
     </row>
-    <row r="187" spans="1:30" customHeight="1" ht="15">
+    <row r="187" spans="1:30" customHeight="1" ht="15.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -8051,8 +7908,8 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-      <c r="H187" s="103"/>
-      <c r="I187" s="103"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -8075,7 +7932,7 @@
       <c r="AC187" s="1"/>
       <c r="AD187" s="1"/>
     </row>
-    <row r="188" spans="1:30" customHeight="1" ht="15">
+    <row r="188" spans="1:30" customHeight="1" ht="15.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -8083,8 +7940,8 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
-      <c r="H188" s="103"/>
-      <c r="I188" s="103"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -8107,7 +7964,7 @@
       <c r="AC188" s="1"/>
       <c r="AD188" s="1"/>
     </row>
-    <row r="189" spans="1:30" customHeight="1" ht="15">
+    <row r="189" spans="1:30" customHeight="1" ht="15.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8115,8 +7972,8 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
-      <c r="H189" s="103"/>
-      <c r="I189" s="103"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -9484,197 +9341,73 @@
       <c r="AD231" s="1"/>
     </row>
     <row r="232" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
-      <c r="M232" s="2"/>
-      <c r="N232" s="3"/>
-      <c r="O232" s="3"/>
-      <c r="P232" s="3"/>
-      <c r="Q232" s="3"/>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="W232" s="1"/>
-      <c r="X232" s="1"/>
-      <c r="Y232" s="1"/>
-      <c r="Z232" s="1"/>
-      <c r="AA232" s="1"/>
-      <c r="AB232" s="1"/>
-      <c r="AC232" s="1"/>
-      <c r="AD232" s="1"/>
+      <c r="A232" s="57"/>
+      <c r="B232" s="57"/>
+      <c r="C232" s="57"/>
+      <c r="D232" s="57"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="7"/>
+      <c r="J232" s="7"/>
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
+      <c r="M232" s="7"/>
+      <c r="N232" s="8"/>
+      <c r="O232" s="8"/>
+      <c r="P232" s="8"/>
+      <c r="Q232" s="8"/>
+      <c r="R232" s="57"/>
+      <c r="S232" s="57"/>
+      <c r="T232" s="57"/>
+      <c r="U232" s="57"/>
+      <c r="V232" s="57"/>
+      <c r="W232" s="57"/>
+      <c r="X232" s="57"/>
+      <c r="Y232" s="57"/>
+      <c r="Z232" s="57"/>
+      <c r="AA232" s="57"/>
+      <c r="AB232" s="57"/>
+      <c r="AC232" s="57"/>
+      <c r="AD232" s="57"/>
     </row>
     <row r="233" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="3"/>
-      <c r="O233" s="3"/>
-      <c r="P233" s="3"/>
-      <c r="Q233" s="3"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="V233" s="1"/>
-      <c r="W233" s="1"/>
-      <c r="X233" s="1"/>
-      <c r="Y233" s="1"/>
-      <c r="Z233" s="1"/>
-      <c r="AA233" s="1"/>
-      <c r="AB233" s="1"/>
-      <c r="AC233" s="1"/>
-      <c r="AD233" s="1"/>
-    </row>
-    <row r="234" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="M234" s="2"/>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3"/>
-      <c r="Q234" s="3"/>
-      <c r="R234" s="1"/>
-      <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
-      <c r="V234" s="1"/>
-      <c r="W234" s="1"/>
-      <c r="X234" s="1"/>
-      <c r="Y234" s="1"/>
-      <c r="Z234" s="1"/>
-      <c r="AA234" s="1"/>
-      <c r="AB234" s="1"/>
-      <c r="AC234" s="1"/>
-      <c r="AD234" s="1"/>
-    </row>
-    <row r="235" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3"/>
-      <c r="Q235" s="3"/>
-      <c r="R235" s="1"/>
-      <c r="S235" s="1"/>
-      <c r="T235" s="1"/>
-      <c r="U235" s="1"/>
-      <c r="V235" s="1"/>
-      <c r="W235" s="1"/>
-      <c r="X235" s="1"/>
-      <c r="Y235" s="1"/>
-      <c r="Z235" s="1"/>
-      <c r="AA235" s="1"/>
-      <c r="AB235" s="1"/>
-      <c r="AC235" s="1"/>
-      <c r="AD235" s="1"/>
-    </row>
-    <row r="236" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A236" s="57"/>
-      <c r="B236" s="57"/>
-      <c r="C236" s="57"/>
-      <c r="D236" s="57"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="7"/>
-      <c r="J236" s="7"/>
-      <c r="K236" s="7"/>
-      <c r="L236" s="7"/>
-      <c r="M236" s="7"/>
-      <c r="N236" s="8"/>
-      <c r="O236" s="8"/>
-      <c r="P236" s="8"/>
-      <c r="Q236" s="8"/>
-      <c r="R236" s="57"/>
-      <c r="S236" s="57"/>
-      <c r="T236" s="57"/>
-      <c r="U236" s="57"/>
-      <c r="V236" s="57"/>
-      <c r="W236" s="57"/>
-      <c r="X236" s="57"/>
-      <c r="Y236" s="57"/>
-      <c r="Z236" s="57"/>
-      <c r="AA236" s="57"/>
-      <c r="AB236" s="57"/>
-      <c r="AC236" s="57"/>
-      <c r="AD236" s="57"/>
-    </row>
-    <row r="237" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A237" s="57"/>
-      <c r="B237" s="57"/>
-      <c r="C237" s="57"/>
-      <c r="D237" s="57"/>
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-      <c r="K237" s="7"/>
-      <c r="L237" s="7"/>
-      <c r="M237" s="7"/>
-      <c r="N237" s="8"/>
-      <c r="O237" s="8"/>
-      <c r="P237" s="8"/>
-      <c r="Q237" s="8"/>
-      <c r="R237" s="57"/>
-      <c r="S237" s="57"/>
-      <c r="T237" s="57"/>
-      <c r="U237" s="57"/>
-      <c r="V237" s="57"/>
-      <c r="W237" s="57"/>
-      <c r="X237" s="57"/>
-      <c r="Y237" s="57"/>
-      <c r="Z237" s="57"/>
-      <c r="AA237" s="57"/>
-      <c r="AB237" s="57"/>
-      <c r="AC237" s="57"/>
-      <c r="AD237" s="57"/>
-    </row>
+      <c r="A233" s="57"/>
+      <c r="B233" s="57"/>
+      <c r="C233" s="57"/>
+      <c r="D233" s="57"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="7"/>
+      <c r="J233" s="7"/>
+      <c r="K233" s="7"/>
+      <c r="L233" s="7"/>
+      <c r="M233" s="7"/>
+      <c r="N233" s="8"/>
+      <c r="O233" s="8"/>
+      <c r="P233" s="8"/>
+      <c r="Q233" s="8"/>
+      <c r="R233" s="57"/>
+      <c r="S233" s="57"/>
+      <c r="T233" s="57"/>
+      <c r="U233" s="57"/>
+      <c r="V233" s="57"/>
+      <c r="W233" s="57"/>
+      <c r="X233" s="57"/>
+      <c r="Y233" s="57"/>
+      <c r="Z233" s="57"/>
+      <c r="AA233" s="57"/>
+      <c r="AB233" s="57"/>
+      <c r="AC233" s="57"/>
+      <c r="AD233" s="57"/>
+    </row>
+    <row r="234" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="235" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="236" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="237" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="238" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="239" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="240" spans="1:30" customHeight="1" ht="15.75"/>
@@ -10451,10 +10184,6 @@
     <row r="1011" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="1012" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="1013" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1014" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1015" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1016" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="1017" spans="1:30" customHeight="1" ht="15.75"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="G3:J3"/>
@@ -10480,22 +10209,26 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:P8"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:R12"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B94:D94"/>
@@ -10527,24 +10260,24 @@
     <mergeCell ref="B120:D120"/>
     <mergeCell ref="B121:D121"/>
     <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
     <mergeCell ref="B123:D123"/>
     <mergeCell ref="B124:D124"/>
     <mergeCell ref="B125:D125"/>
     <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
     <mergeCell ref="B127:D127"/>
     <mergeCell ref="B128:D128"/>
     <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10590,10 +10323,6 @@
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
@@ -10604,12 +10333,8 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.387917" bottom="0.45125" header="0" footer="0"/>

--- a/public/uploads/invoice/ERS05071-Invoice1.xlsx
+++ b/public/uploads/invoice/ERS05071-Invoice1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Client Invoice Export" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Client Invoice Export'!$A$1:$T$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Client Invoice Export'!$A$1:$T$35</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>INVOICE</t>
   </si>
@@ -226,6 +226,18 @@
     <t>BOND</t>
   </si>
   <si>
+    <t>4 IN SIDEWALK $5 LOT</t>
+  </si>
+  <si>
+    <t>4 INCH V-GUTTER</t>
+  </si>
+  <si>
+    <t>6 IN DUMPSTER PAD (DOES NOT INCLUDE CATCH BASIN)</t>
+  </si>
+  <si>
+    <t>6' CONCRETE SIDEWALK</t>
+  </si>
+  <si>
     <t>CHANGE ORDER IN OCTOBER 2025</t>
   </si>
   <si>
@@ -245,6 +257,9 @@
   </si>
   <si>
     <t>LS</t>
+  </si>
+  <si>
+    <t>SF</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1636,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD1013"/>
+  <dimension ref="A1:AD1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="14.43" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2252,7 +2267,7 @@
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
       <c r="E16" s="117" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F16" s="118">
         <v>87.0</v>
@@ -2316,7 +2331,7 @@
       <c r="C17" s="115"/>
       <c r="D17" s="115"/>
       <c r="E17" s="117" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F17" s="118">
         <v>58.0</v>
@@ -2380,7 +2395,7 @@
       <c r="C18" s="115"/>
       <c r="D18" s="115"/>
       <c r="E18" s="117" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" s="118">
         <v>386.0</v>
@@ -2444,7 +2459,7 @@
       <c r="C19" s="115"/>
       <c r="D19" s="115"/>
       <c r="E19" s="117" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" s="118">
         <v>2200.0</v>
@@ -2508,7 +2523,7 @@
       <c r="C20" s="115"/>
       <c r="D20" s="115"/>
       <c r="E20" s="117" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F20" s="118">
         <v>800.0</v>
@@ -2572,7 +2587,7 @@
       <c r="C21" s="115"/>
       <c r="D21" s="115"/>
       <c r="E21" s="117" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F21" s="118">
         <v>36.0</v>
@@ -2636,7 +2651,7 @@
       <c r="C22" s="115"/>
       <c r="D22" s="115"/>
       <c r="E22" s="117" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F22" s="118">
         <v>20.0</v>
@@ -2700,7 +2715,7 @@
       <c r="C23" s="115"/>
       <c r="D23" s="115"/>
       <c r="E23" s="117" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F23" s="118">
         <v>20.0</v>
@@ -2764,7 +2779,7 @@
       <c r="C24" s="115"/>
       <c r="D24" s="115"/>
       <c r="E24" s="117" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F24" s="118">
         <v>10.0</v>
@@ -2828,7 +2843,7 @@
       <c r="C25" s="115"/>
       <c r="D25" s="115"/>
       <c r="E25" s="117" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F25" s="118">
         <v>-1823.75</v>
@@ -2882,26 +2897,58 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" customHeight="1" ht="10">
-      <c r="A26" s="121"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="122"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
+    <row r="26" spans="1:30" customHeight="1" ht="18">
+      <c r="A26" s="115">
+        <v>11</v>
+      </c>
+      <c r="B26" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="118">
+        <v>10.0</v>
+      </c>
+      <c r="G26" s="119">
+        <v>150.0</v>
+      </c>
+      <c r="H26" s="118">
+        <v>1500.0</v>
+      </c>
+      <c r="I26" s="119">
+        <v>0</v>
+      </c>
+      <c r="J26" s="118">
+        <v>0</v>
+      </c>
+      <c r="K26" s="119">
+        <v>0</v>
+      </c>
+      <c r="L26" s="118">
+        <v>0</v>
+      </c>
+      <c r="M26" s="119">
+        <v>0</v>
+      </c>
+      <c r="N26" s="118">
+        <v>0</v>
+      </c>
+      <c r="O26" s="119">
+        <v>0</v>
+      </c>
+      <c r="P26" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="119">
+        <v>0</v>
+      </c>
+      <c r="S26" s="118">
+        <v>0</v>
+      </c>
       <c r="T26" s="1"/>
       <c r="U26" s="57"/>
       <c r="V26" s="57"/>
@@ -2914,28 +2961,58 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" customHeight="1" ht="22">
-      <c r="A27" s="131"/>
-      <c r="B27" s="123" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="127"/>
-      <c r="L27" s="127"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="130"/>
-      <c r="S27" s="130"/>
+    <row r="27" spans="1:30" customHeight="1" ht="18">
+      <c r="A27" s="115">
+        <v>12</v>
+      </c>
+      <c r="B27" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="117" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="118">
+        <v>10.0</v>
+      </c>
+      <c r="G27" s="119">
+        <v>120.0</v>
+      </c>
+      <c r="H27" s="118">
+        <v>1200.0</v>
+      </c>
+      <c r="I27" s="119">
+        <v>0</v>
+      </c>
+      <c r="J27" s="118">
+        <v>0</v>
+      </c>
+      <c r="K27" s="119">
+        <v>0</v>
+      </c>
+      <c r="L27" s="118">
+        <v>0</v>
+      </c>
+      <c r="M27" s="119">
+        <v>0</v>
+      </c>
+      <c r="N27" s="118">
+        <v>0</v>
+      </c>
+      <c r="O27" s="119">
+        <v>0</v>
+      </c>
+      <c r="P27" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="119">
+        <v>0</v>
+      </c>
+      <c r="S27" s="118">
+        <v>0</v>
+      </c>
       <c r="T27" s="1"/>
       <c r="U27" s="57"/>
       <c r="V27" s="57"/>
@@ -2950,55 +3027,55 @@
     </row>
     <row r="28" spans="1:30" customHeight="1" ht="18">
       <c r="A28" s="115">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B28" s="116" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="115"/>
       <c r="D28" s="115"/>
       <c r="E28" s="117" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F28" s="118">
-        <v>124.0</v>
+        <v>10.0</v>
       </c>
       <c r="G28" s="119">
-        <v>5.0</v>
+        <v>500.0</v>
       </c>
       <c r="H28" s="118">
-        <v>620.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I28" s="119">
-        <v>34.0</v>
+        <v>0</v>
       </c>
       <c r="J28" s="118">
-        <v>4216.0</v>
+        <v>0</v>
       </c>
       <c r="K28" s="119">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="118">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M28" s="119">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="118">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O28" s="119">
-        <v>34.0</v>
+        <v>0</v>
       </c>
       <c r="P28" s="118">
-        <v>4216.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="120"/>
       <c r="R28" s="119">
-        <v>34.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="118">
-        <v>4216.0</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="57"/>
@@ -3012,55 +3089,57 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" customHeight="1" ht="53.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="92">
-        <f>SUM(H16:H28)</f>
-        <v>258018.25</v>
-      </c>
-      <c r="I29" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="94">
-        <f>SUM(J16:J28)</f>
-        <v>265161.54249999998137</v>
-      </c>
-      <c r="K29" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="96">
-        <f>SUM(L16:L28)</f>
+    <row r="29" spans="1:30" customHeight="1" ht="18">
+      <c r="A29" s="115">
+        <v>14</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="118">
+        <v>12.0</v>
+      </c>
+      <c r="G29" s="119">
+        <v>250.0</v>
+      </c>
+      <c r="H29" s="118">
+        <v>3000.0</v>
+      </c>
+      <c r="I29" s="119">
         <v>0</v>
       </c>
-      <c r="M29" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="98">
-        <f>SUM(N16:N28)</f>
+      <c r="J29" s="118">
         <v>0</v>
       </c>
-      <c r="O29" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" s="100">
-        <f>SUM(P16:P28)</f>
-        <v>265155.53000000002794</v>
-      </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="S29" s="102">
-        <f>SUM(S16:S28)</f>
-        <v>265155.53000000002794</v>
+      <c r="K29" s="119">
+        <v>0</v>
+      </c>
+      <c r="L29" s="118">
+        <v>0</v>
+      </c>
+      <c r="M29" s="119">
+        <v>0</v>
+      </c>
+      <c r="N29" s="118">
+        <v>0</v>
+      </c>
+      <c r="O29" s="119">
+        <v>0</v>
+      </c>
+      <c r="P29" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="119">
+        <v>0</v>
+      </c>
+      <c r="S29" s="118">
+        <v>0</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="57"/>
@@ -3074,34 +3153,29 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" customHeight="1" ht="40">
-      <c r="A30" s="103"/>
-      <c r="B30" s="104"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="134">
-        <v>13135.72999999999956</v>
-      </c>
-      <c r="K30" s="106"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="109"/>
+    <row r="30" spans="1:30" customHeight="1" ht="10">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30" s="133">
-        <v>13135.72999999999956</v>
-      </c>
-      <c r="T30" s="57"/>
-      <c r="U30" s="110"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -3111,36 +3185,31 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" customHeight="1" ht="48.75">
-      <c r="A31" s="103"/>
-      <c r="B31" s="104"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="134">
-        <f>J29-J30</f>
-        <v>252025.8124999999709</v>
-      </c>
-      <c r="K31" s="106"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="S31" s="136">
-        <f>S29-S30</f>
-        <v>252019.80000000001746</v>
-      </c>
+    <row r="31" spans="1:30" customHeight="1" ht="22">
+      <c r="A31" s="131"/>
+      <c r="B31" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="124"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="110"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -3150,27 +3219,61 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" customHeight="1" ht="23.25">
-      <c r="A32" s="103"/>
-      <c r="B32" s="104"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+    <row r="32" spans="1:30" customHeight="1" ht="18">
+      <c r="A32" s="115">
+        <v>15</v>
+      </c>
+      <c r="B32" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="118">
+        <v>124.0</v>
+      </c>
+      <c r="G32" s="119">
+        <v>5.0</v>
+      </c>
+      <c r="H32" s="118">
+        <v>620.0</v>
+      </c>
+      <c r="I32" s="119">
+        <v>34.0</v>
+      </c>
+      <c r="J32" s="118">
+        <v>4216.0</v>
+      </c>
+      <c r="K32" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="119">
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="118">
+        <v>0.0</v>
+      </c>
+      <c r="O32" s="119">
+        <v>34.0</v>
+      </c>
+      <c r="P32" s="118">
+        <v>4216.0</v>
+      </c>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="119">
+        <v>34.0</v>
+      </c>
+      <c r="S32" s="118">
+        <v>4216.0</v>
+      </c>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -3180,27 +3283,59 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" customHeight="1" ht="29.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="104"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="113"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+    <row r="33" spans="1:30" customHeight="1" ht="53.25">
+      <c r="A33" s="87"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="92">
+        <f>SUM(H16:H32)</f>
+        <v>268718.25</v>
+      </c>
+      <c r="I33" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="94">
+        <f>SUM(J16:J32)</f>
+        <v>265161.54249999998137</v>
+      </c>
+      <c r="K33" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="96">
+        <f>SUM(L16:L32)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="98">
+        <f>SUM(N16:N32)</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="100">
+        <f>SUM(P16:P32)</f>
+        <v>265155.53000000002794</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="S33" s="102">
+        <f>SUM(S16:S32)</f>
+        <v>265155.53000000002794</v>
+      </c>
       <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -3210,27 +3345,34 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" customHeight="1" ht="31.5">
+    <row r="34" spans="1:30" customHeight="1" ht="40">
       <c r="A34" s="103"/>
       <c r="B34" s="104"/>
       <c r="E34" s="103"/>
       <c r="F34" s="105"/>
       <c r="G34" s="105"/>
       <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
+      <c r="I34" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="J34" s="134">
+        <v>13135.72999999999956</v>
+      </c>
       <c r="K34" s="106"/>
-      <c r="L34" s="108"/>
+      <c r="L34" s="7"/>
       <c r="M34" s="108"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="S34" s="133">
+        <v>13135.72999999999956</v>
+      </c>
+      <c r="T34" s="57"/>
+      <c r="U34" s="110"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -3240,27 +3382,36 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" customHeight="1" ht="30">
+    <row r="35" spans="1:30" customHeight="1" ht="48.75">
       <c r="A35" s="103"/>
       <c r="B35" s="104"/>
       <c r="E35" s="103"/>
       <c r="F35" s="105"/>
       <c r="G35" s="105"/>
       <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
+      <c r="I35" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="134">
+        <f>J33-J34</f>
+        <v>252025.8124999999709</v>
+      </c>
       <c r="K35" s="106"/>
       <c r="L35" s="108"/>
       <c r="M35" s="108"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="114"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
       <c r="P35" s="111"/>
       <c r="Q35" s="112"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="R35" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="S35" s="136">
+        <f>S33-S34</f>
+        <v>252019.80000000001746</v>
+      </c>
       <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="U35" s="110"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -3270,15 +3421,15 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" customHeight="1" ht="30">
+    <row r="36" spans="1:30" customHeight="1" ht="23.25">
       <c r="A36" s="103"/>
       <c r="B36" s="104"/>
       <c r="E36" s="103"/>
       <c r="F36" s="105"/>
       <c r="G36" s="105"/>
       <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="106"/>
       <c r="L36" s="108"/>
       <c r="M36" s="108"/>
@@ -3300,20 +3451,20 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" customHeight="1" ht="15">
+    <row r="37" spans="1:30" customHeight="1" ht="29.25">
       <c r="A37" s="103"/>
       <c r="B37" s="104"/>
       <c r="E37" s="103"/>
       <c r="F37" s="105"/>
       <c r="G37" s="105"/>
       <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="106"/>
       <c r="L37" s="108"/>
       <c r="M37" s="108"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="114"/>
       <c r="P37" s="111"/>
       <c r="Q37" s="112"/>
       <c r="R37" s="1"/>
@@ -3330,7 +3481,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" customHeight="1" ht="15">
+    <row r="38" spans="1:30" customHeight="1" ht="31.5">
       <c r="A38" s="103"/>
       <c r="B38" s="104"/>
       <c r="E38" s="103"/>
@@ -3342,8 +3493,8 @@
       <c r="K38" s="106"/>
       <c r="L38" s="108"/>
       <c r="M38" s="108"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="114"/>
       <c r="P38" s="111"/>
       <c r="Q38" s="112"/>
       <c r="R38" s="1"/>
@@ -3360,7 +3511,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" customHeight="1" ht="15">
+    <row r="39" spans="1:30" customHeight="1" ht="30">
       <c r="A39" s="103"/>
       <c r="B39" s="104"/>
       <c r="E39" s="103"/>
@@ -3372,8 +3523,8 @@
       <c r="K39" s="106"/>
       <c r="L39" s="108"/>
       <c r="M39" s="108"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="114"/>
       <c r="P39" s="111"/>
       <c r="Q39" s="112"/>
       <c r="R39" s="1"/>
@@ -3390,7 +3541,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" customHeight="1" ht="15">
+    <row r="40" spans="1:30" customHeight="1" ht="30">
       <c r="A40" s="103"/>
       <c r="B40" s="104"/>
       <c r="E40" s="103"/>
@@ -3402,8 +3553,8 @@
       <c r="K40" s="106"/>
       <c r="L40" s="108"/>
       <c r="M40" s="108"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="111"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="114"/>
       <c r="P40" s="111"/>
       <c r="Q40" s="112"/>
       <c r="R40" s="1"/>
@@ -3938,8 +4089,8 @@
       <c r="G58" s="105"/>
       <c r="H58" s="106"/>
       <c r="I58" s="106"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
       <c r="L58" s="108"/>
       <c r="M58" s="108"/>
       <c r="N58" s="111"/>
@@ -3968,8 +4119,8 @@
       <c r="G59" s="105"/>
       <c r="H59" s="106"/>
       <c r="I59" s="106"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
       <c r="L59" s="108"/>
       <c r="M59" s="108"/>
       <c r="N59" s="111"/>
@@ -3998,8 +4149,8 @@
       <c r="G60" s="105"/>
       <c r="H60" s="106"/>
       <c r="I60" s="106"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
       <c r="L60" s="108"/>
       <c r="M60" s="108"/>
       <c r="N60" s="111"/>
@@ -4028,8 +4179,8 @@
       <c r="G61" s="105"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="103"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
       <c r="L61" s="108"/>
       <c r="M61" s="108"/>
       <c r="N61" s="111"/>
@@ -4060,11 +4211,11 @@
       <c r="I62" s="106"/>
       <c r="J62" s="103"/>
       <c r="K62" s="103"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="111"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="111"/>
       <c r="Q62" s="112"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -4090,11 +4241,11 @@
       <c r="I63" s="106"/>
       <c r="J63" s="103"/>
       <c r="K63" s="103"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="111"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
       <c r="Q63" s="112"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -4120,11 +4271,11 @@
       <c r="I64" s="106"/>
       <c r="J64" s="103"/>
       <c r="K64" s="103"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="111"/>
+      <c r="O64" s="111"/>
+      <c r="P64" s="111"/>
       <c r="Q64" s="112"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -4150,11 +4301,11 @@
       <c r="I65" s="106"/>
       <c r="J65" s="103"/>
       <c r="K65" s="103"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="111"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
       <c r="Q65" s="112"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -4388,8 +4539,8 @@
       <c r="G73" s="105"/>
       <c r="H73" s="106"/>
       <c r="I73" s="106"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="103"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="3"/>
@@ -4418,8 +4569,8 @@
       <c r="G74" s="105"/>
       <c r="H74" s="106"/>
       <c r="I74" s="106"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="103"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="3"/>
@@ -4448,8 +4599,8 @@
       <c r="G75" s="105"/>
       <c r="H75" s="106"/>
       <c r="I75" s="106"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="103"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
@@ -4478,8 +4629,8 @@
       <c r="G76" s="105"/>
       <c r="H76" s="106"/>
       <c r="I76" s="106"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="J76" s="103"/>
+      <c r="K76" s="103"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="3"/>
@@ -4594,8 +4745,8 @@
       <c r="A80" s="103"/>
       <c r="B80" s="104"/>
       <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
       <c r="H80" s="106"/>
       <c r="I80" s="106"/>
       <c r="J80" s="2"/>
@@ -4624,8 +4775,8 @@
       <c r="A81" s="103"/>
       <c r="B81" s="104"/>
       <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
       <c r="H81" s="106"/>
       <c r="I81" s="106"/>
       <c r="J81" s="2"/>
@@ -4654,8 +4805,8 @@
       <c r="A82" s="103"/>
       <c r="B82" s="104"/>
       <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
       <c r="H82" s="106"/>
       <c r="I82" s="106"/>
       <c r="J82" s="2"/>
@@ -4684,8 +4835,8 @@
       <c r="A83" s="103"/>
       <c r="B83" s="104"/>
       <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
       <c r="H83" s="106"/>
       <c r="I83" s="106"/>
       <c r="J83" s="2"/>
@@ -5625,7 +5776,7 @@
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
+      <c r="Q114" s="112"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
@@ -5655,7 +5806,7 @@
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
+      <c r="Q115" s="112"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
@@ -5685,7 +5836,7 @@
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
+      <c r="Q116" s="112"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
@@ -5715,7 +5866,7 @@
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
+      <c r="Q117" s="112"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
@@ -6302,9 +6453,7 @@
     </row>
     <row r="137" spans="1:30" customHeight="1" ht="15">
       <c r="A137" s="103"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="B137" s="104"/>
       <c r="E137" s="103"/>
       <c r="F137" s="103"/>
       <c r="G137" s="103"/>
@@ -6334,9 +6483,7 @@
     </row>
     <row r="138" spans="1:30" customHeight="1" ht="15">
       <c r="A138" s="103"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="B138" s="104"/>
       <c r="E138" s="103"/>
       <c r="F138" s="103"/>
       <c r="G138" s="103"/>
@@ -6366,9 +6513,7 @@
     </row>
     <row r="139" spans="1:30" customHeight="1" ht="15">
       <c r="A139" s="103"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="B139" s="104"/>
       <c r="E139" s="103"/>
       <c r="F139" s="103"/>
       <c r="G139" s="103"/>
@@ -6398,9 +6543,7 @@
     </row>
     <row r="140" spans="1:30" customHeight="1" ht="15">
       <c r="A140" s="103"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="B140" s="104"/>
       <c r="E140" s="103"/>
       <c r="F140" s="103"/>
       <c r="G140" s="103"/>
@@ -7044,8 +7187,8 @@
       <c r="E160" s="103"/>
       <c r="F160" s="103"/>
       <c r="G160" s="103"/>
-      <c r="H160" s="103"/>
-      <c r="I160" s="103"/>
+      <c r="H160" s="106"/>
+      <c r="I160" s="106"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
@@ -7076,8 +7219,8 @@
       <c r="E161" s="103"/>
       <c r="F161" s="103"/>
       <c r="G161" s="103"/>
-      <c r="H161" s="103"/>
-      <c r="I161" s="103"/>
+      <c r="H161" s="106"/>
+      <c r="I161" s="106"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
@@ -7108,8 +7251,8 @@
       <c r="E162" s="103"/>
       <c r="F162" s="103"/>
       <c r="G162" s="103"/>
-      <c r="H162" s="103"/>
-      <c r="I162" s="103"/>
+      <c r="H162" s="106"/>
+      <c r="I162" s="106"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
@@ -7140,8 +7283,8 @@
       <c r="E163" s="103"/>
       <c r="F163" s="103"/>
       <c r="G163" s="103"/>
-      <c r="H163" s="103"/>
-      <c r="I163" s="103"/>
+      <c r="H163" s="106"/>
+      <c r="I163" s="106"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
@@ -7617,7 +7760,7 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="2"/>
+      <c r="E178" s="103"/>
       <c r="F178" s="103"/>
       <c r="G178" s="103"/>
       <c r="H178" s="103"/>
@@ -7649,7 +7792,7 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="2"/>
+      <c r="E179" s="103"/>
       <c r="F179" s="103"/>
       <c r="G179" s="103"/>
       <c r="H179" s="103"/>
@@ -7677,13 +7820,13 @@
       <c r="AD179" s="1"/>
     </row>
     <row r="180" spans="1:30" customHeight="1" ht="15">
-      <c r="A180" s="1"/>
+      <c r="A180" s="103"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
+      <c r="E180" s="103"/>
+      <c r="F180" s="103"/>
+      <c r="G180" s="103"/>
       <c r="H180" s="103"/>
       <c r="I180" s="103"/>
       <c r="J180" s="2"/>
@@ -7709,13 +7852,13 @@
       <c r="AD180" s="1"/>
     </row>
     <row r="181" spans="1:30" customHeight="1" ht="15">
-      <c r="A181" s="1"/>
+      <c r="A181" s="103"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
+      <c r="E181" s="103"/>
+      <c r="F181" s="103"/>
+      <c r="G181" s="103"/>
       <c r="H181" s="103"/>
       <c r="I181" s="103"/>
       <c r="J181" s="2"/>
@@ -7741,13 +7884,13 @@
       <c r="AD181" s="1"/>
     </row>
     <row r="182" spans="1:30" customHeight="1" ht="15">
-      <c r="A182" s="1"/>
+      <c r="A182" s="103"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
+      <c r="F182" s="103"/>
+      <c r="G182" s="103"/>
       <c r="H182" s="103"/>
       <c r="I182" s="103"/>
       <c r="J182" s="2"/>
@@ -7773,13 +7916,13 @@
       <c r="AD182" s="1"/>
     </row>
     <row r="183" spans="1:30" customHeight="1" ht="15">
-      <c r="A183" s="1"/>
+      <c r="A183" s="103"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
+      <c r="F183" s="103"/>
+      <c r="G183" s="103"/>
       <c r="H183" s="103"/>
       <c r="I183" s="103"/>
       <c r="J183" s="2"/>
@@ -7868,7 +8011,7 @@
       <c r="AC185" s="1"/>
       <c r="AD185" s="1"/>
     </row>
-    <row r="186" spans="1:30" customHeight="1" ht="15.75">
+    <row r="186" spans="1:30" customHeight="1" ht="15">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7876,8 +8019,8 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
+      <c r="H186" s="103"/>
+      <c r="I186" s="103"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -7900,7 +8043,7 @@
       <c r="AC186" s="1"/>
       <c r="AD186" s="1"/>
     </row>
-    <row r="187" spans="1:30" customHeight="1" ht="15.75">
+    <row r="187" spans="1:30" customHeight="1" ht="15">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7908,8 +8051,8 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
+      <c r="H187" s="103"/>
+      <c r="I187" s="103"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -7932,7 +8075,7 @@
       <c r="AC187" s="1"/>
       <c r="AD187" s="1"/>
     </row>
-    <row r="188" spans="1:30" customHeight="1" ht="15.75">
+    <row r="188" spans="1:30" customHeight="1" ht="15">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7940,8 +8083,8 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
+      <c r="H188" s="103"/>
+      <c r="I188" s="103"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
@@ -7964,7 +8107,7 @@
       <c r="AC188" s="1"/>
       <c r="AD188" s="1"/>
     </row>
-    <row r="189" spans="1:30" customHeight="1" ht="15.75">
+    <row r="189" spans="1:30" customHeight="1" ht="15">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7972,8 +8115,8 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
+      <c r="H189" s="103"/>
+      <c r="I189" s="103"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
@@ -9341,73 +9484,197 @@
       <c r="AD231" s="1"/>
     </row>
     <row r="232" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A232" s="57"/>
-      <c r="B232" s="57"/>
-      <c r="C232" s="57"/>
-      <c r="D232" s="57"/>
-      <c r="E232" s="7"/>
-      <c r="F232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7"/>
-      <c r="I232" s="7"/>
-      <c r="J232" s="7"/>
-      <c r="K232" s="7"/>
-      <c r="L232" s="7"/>
-      <c r="M232" s="7"/>
-      <c r="N232" s="8"/>
-      <c r="O232" s="8"/>
-      <c r="P232" s="8"/>
-      <c r="Q232" s="8"/>
-      <c r="R232" s="57"/>
-      <c r="S232" s="57"/>
-      <c r="T232" s="57"/>
-      <c r="U232" s="57"/>
-      <c r="V232" s="57"/>
-      <c r="W232" s="57"/>
-      <c r="X232" s="57"/>
-      <c r="Y232" s="57"/>
-      <c r="Z232" s="57"/>
-      <c r="AA232" s="57"/>
-      <c r="AB232" s="57"/>
-      <c r="AC232" s="57"/>
-      <c r="AD232" s="57"/>
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
     </row>
     <row r="233" spans="1:30" customHeight="1" ht="15.75">
-      <c r="A233" s="57"/>
-      <c r="B233" s="57"/>
-      <c r="C233" s="57"/>
-      <c r="D233" s="57"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-      <c r="K233" s="7"/>
-      <c r="L233" s="7"/>
-      <c r="M233" s="7"/>
-      <c r="N233" s="8"/>
-      <c r="O233" s="8"/>
-      <c r="P233" s="8"/>
-      <c r="Q233" s="8"/>
-      <c r="R233" s="57"/>
-      <c r="S233" s="57"/>
-      <c r="T233" s="57"/>
-      <c r="U233" s="57"/>
-      <c r="V233" s="57"/>
-      <c r="W233" s="57"/>
-      <c r="X233" s="57"/>
-      <c r="Y233" s="57"/>
-      <c r="Z233" s="57"/>
-      <c r="AA233" s="57"/>
-      <c r="AB233" s="57"/>
-      <c r="AC233" s="57"/>
-      <c r="AD233" s="57"/>
-    </row>
-    <row r="234" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="235" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="236" spans="1:30" customHeight="1" ht="15.75"/>
-    <row r="237" spans="1:30" customHeight="1" ht="15.75"/>
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="3"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+    </row>
+    <row r="234" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+    </row>
+    <row r="235" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+    </row>
+    <row r="236" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A236" s="57"/>
+      <c r="B236" s="57"/>
+      <c r="C236" s="57"/>
+      <c r="D236" s="57"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="7"/>
+      <c r="J236" s="7"/>
+      <c r="K236" s="7"/>
+      <c r="L236" s="7"/>
+      <c r="M236" s="7"/>
+      <c r="N236" s="8"/>
+      <c r="O236" s="8"/>
+      <c r="P236" s="8"/>
+      <c r="Q236" s="8"/>
+      <c r="R236" s="57"/>
+      <c r="S236" s="57"/>
+      <c r="T236" s="57"/>
+      <c r="U236" s="57"/>
+      <c r="V236" s="57"/>
+      <c r="W236" s="57"/>
+      <c r="X236" s="57"/>
+      <c r="Y236" s="57"/>
+      <c r="Z236" s="57"/>
+      <c r="AA236" s="57"/>
+      <c r="AB236" s="57"/>
+      <c r="AC236" s="57"/>
+      <c r="AD236" s="57"/>
+    </row>
+    <row r="237" spans="1:30" customHeight="1" ht="15.75">
+      <c r="A237" s="57"/>
+      <c r="B237" s="57"/>
+      <c r="C237" s="57"/>
+      <c r="D237" s="57"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="7"/>
+      <c r="J237" s="7"/>
+      <c r="K237" s="7"/>
+      <c r="L237" s="7"/>
+      <c r="M237" s="7"/>
+      <c r="N237" s="8"/>
+      <c r="O237" s="8"/>
+      <c r="P237" s="8"/>
+      <c r="Q237" s="8"/>
+      <c r="R237" s="57"/>
+      <c r="S237" s="57"/>
+      <c r="T237" s="57"/>
+      <c r="U237" s="57"/>
+      <c r="V237" s="57"/>
+      <c r="W237" s="57"/>
+      <c r="X237" s="57"/>
+      <c r="Y237" s="57"/>
+      <c r="Z237" s="57"/>
+      <c r="AA237" s="57"/>
+      <c r="AB237" s="57"/>
+      <c r="AC237" s="57"/>
+      <c r="AD237" s="57"/>
+    </row>
     <row r="238" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="239" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="240" spans="1:30" customHeight="1" ht="15.75"/>
@@ -10184,6 +10451,10 @@
     <row r="1011" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="1012" spans="1:30" customHeight="1" ht="15.75"/>
     <row r="1013" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1014" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1015" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1016" spans="1:30" customHeight="1" ht="15.75"/>
+    <row r="1017" spans="1:30" customHeight="1" ht="15.75"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="G3:J3"/>
@@ -10209,26 +10480,22 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:P8"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:R12"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B94:D94"/>
@@ -10260,24 +10527,24 @@
     <mergeCell ref="B120:D120"/>
     <mergeCell ref="B121:D121"/>
     <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
     <mergeCell ref="B130:D130"/>
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -10323,6 +10590,10 @@
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
@@ -10333,8 +10604,12 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.387917" bottom="0.45125" header="0" footer="0"/>

--- a/public/uploads/invoice/ERS05071-Invoice1.xlsx
+++ b/public/uploads/invoice/ERS05071-Invoice1.xlsx
@@ -416,7 +416,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +479,24 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66BB6A"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB3B"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB74D"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -999,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="143">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1313,26 +1331,35 @@
     <xf xfId="0" fontId="7" numFmtId="4" fillId="0" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="7" numFmtId="4" fillId="12" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="12" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="4" fillId="13" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="13" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="4" fillId="14" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="164" fillId="14" borderId="32" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="11" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="12" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="13" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="14" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="15" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="16" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="17" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1341,6 +1368,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="0" fillId="19" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="20" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="21" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="22" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2854,35 +2890,35 @@
       <c r="H25" s="118">
         <v>-1823.75</v>
       </c>
-      <c r="I25" s="119">
+      <c r="I25" s="121">
         <v>0.97</v>
       </c>
-      <c r="J25" s="118">
+      <c r="J25" s="122">
         <v>-1769.037499999999909</v>
       </c>
-      <c r="K25" s="119">
+      <c r="K25" s="121">
         <v>0.0</v>
       </c>
-      <c r="L25" s="118">
+      <c r="L25" s="122">
         <v>0.0</v>
       </c>
-      <c r="M25" s="119">
+      <c r="M25" s="123">
         <v>0</v>
       </c>
-      <c r="N25" s="118">
+      <c r="N25" s="124">
         <v>0</v>
       </c>
-      <c r="O25" s="119">
+      <c r="O25" s="125">
         <v>0.973298</v>
       </c>
-      <c r="P25" s="118">
+      <c r="P25" s="126">
         <v>-1775.049999999999955</v>
       </c>
       <c r="Q25" s="120"/>
-      <c r="R25" s="119">
+      <c r="R25" s="125">
         <v>0.973298</v>
       </c>
-      <c r="S25" s="118">
+      <c r="S25" s="126">
         <v>-1775.049999999999955</v>
       </c>
       <c r="T25" s="1"/>
@@ -3154,25 +3190,25 @@
       <c r="AD29" s="1"/>
     </row>
     <row r="30" spans="1:30" customHeight="1" ht="10">
-      <c r="A30" s="121"/>
-      <c r="B30" s="122"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
       <c r="Q30" s="8"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
       <c r="T30" s="1"/>
       <c r="U30" s="57"/>
       <c r="V30" s="57"/>
@@ -3186,27 +3222,27 @@
       <c r="AD30" s="1"/>
     </row>
     <row r="31" spans="1:30" customHeight="1" ht="22">
-      <c r="A31" s="131"/>
-      <c r="B31" s="123" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="124"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="136"/>
       <c r="T31" s="1"/>
       <c r="U31" s="57"/>
       <c r="V31" s="57"/>
@@ -3355,7 +3391,7 @@
       <c r="I34" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="134">
+      <c r="J34" s="140">
         <v>13135.72999999999956</v>
       </c>
       <c r="K34" s="106"/>
@@ -3365,10 +3401,10 @@
       <c r="O34" s="8"/>
       <c r="P34" s="109"/>
       <c r="Q34" s="8"/>
-      <c r="R34" s="132" t="s">
+      <c r="R34" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="S34" s="133">
+      <c r="S34" s="139">
         <v>13135.72999999999956</v>
       </c>
       <c r="T34" s="57"/>
@@ -3392,7 +3428,7 @@
       <c r="I35" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="134">
+      <c r="J35" s="140">
         <f>J33-J34</f>
         <v>252025.8124999999709</v>
       </c>
@@ -3403,10 +3439,10 @@
       <c r="O35" s="8"/>
       <c r="P35" s="111"/>
       <c r="Q35" s="112"/>
-      <c r="R35" s="135" t="s">
+      <c r="R35" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="S35" s="136">
+      <c r="S35" s="142">
         <f>S33-S34</f>
         <v>252019.80000000001746</v>
       </c>
